--- a/simulation data/true/Beijing_data_2020.xlsx
+++ b/simulation data/true/Beijing_data_2020.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2019_A" sheetId="1" r:id="rId1"/>
-    <sheet name="2019_B" sheetId="2" r:id="rId2"/>
-    <sheet name="2019_C" sheetId="3" r:id="rId3"/>
+    <sheet name="2020_A" sheetId="1" r:id="rId1"/>
+    <sheet name="2020_B" sheetId="2" r:id="rId2"/>
+    <sheet name="2020_C" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="10">
   <si>
     <t>city</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>AQI_avg</t>
+  </si>
+  <si>
+    <t>Beijing</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,6 +438,1804 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>20191201</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>17.16666666666667</v>
+      </c>
+      <c r="E2">
+        <v>0.3558333333333333</v>
+      </c>
+      <c r="F2">
+        <v>29.875</v>
+      </c>
+      <c r="G2">
+        <v>11.70833333333333</v>
+      </c>
+      <c r="H2">
+        <v>58</v>
+      </c>
+      <c r="I2">
+        <v>29.41666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>20191202</v>
+      </c>
+      <c r="C3">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="D3">
+        <v>22.95833333333333</v>
+      </c>
+      <c r="E3">
+        <v>0.33</v>
+      </c>
+      <c r="F3">
+        <v>24.75</v>
+      </c>
+      <c r="G3">
+        <v>9.375</v>
+      </c>
+      <c r="H3">
+        <v>59</v>
+      </c>
+      <c r="I3">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>20191203</v>
+      </c>
+      <c r="C4">
+        <v>3.434782608695652</v>
+      </c>
+      <c r="D4">
+        <v>37.65217391304348</v>
+      </c>
+      <c r="E4">
+        <v>0.4569565217391304</v>
+      </c>
+      <c r="F4">
+        <v>43.39130434782609</v>
+      </c>
+      <c r="G4">
+        <v>14.95652173913044</v>
+      </c>
+      <c r="H4">
+        <v>62</v>
+      </c>
+      <c r="I4">
+        <v>42.65217391304348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>20191204</v>
+      </c>
+      <c r="C5">
+        <v>3.291666666666667</v>
+      </c>
+      <c r="D5">
+        <v>35.20833333333334</v>
+      </c>
+      <c r="E5">
+        <v>0.4316666666666666</v>
+      </c>
+      <c r="F5">
+        <v>32.29166666666666</v>
+      </c>
+      <c r="G5">
+        <v>12.95833333333333</v>
+      </c>
+      <c r="H5">
+        <v>65</v>
+      </c>
+      <c r="I5">
+        <v>33.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>20191205</v>
+      </c>
+      <c r="C6">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D6">
+        <v>37.91666666666666</v>
+      </c>
+      <c r="E6">
+        <v>0.6825</v>
+      </c>
+      <c r="F6">
+        <v>39.04166666666666</v>
+      </c>
+      <c r="G6">
+        <v>21.58333333333333</v>
+      </c>
+      <c r="H6">
+        <v>55</v>
+      </c>
+      <c r="I6">
+        <v>37.29166666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>20191206</v>
+      </c>
+      <c r="C7">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="D7">
+        <v>57.66666666666666</v>
+      </c>
+      <c r="E7">
+        <v>0.8670833333333334</v>
+      </c>
+      <c r="F7">
+        <v>65.625</v>
+      </c>
+      <c r="G7">
+        <v>49.33333333333334</v>
+      </c>
+      <c r="H7">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>70.33333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>20191207</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>61.66666666666666</v>
+      </c>
+      <c r="E8">
+        <v>0.8887499999999999</v>
+      </c>
+      <c r="F8">
+        <v>68.45833333333333</v>
+      </c>
+      <c r="G8">
+        <v>51.625</v>
+      </c>
+      <c r="H8">
+        <v>29</v>
+      </c>
+      <c r="I8">
+        <v>71.08333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>20191208</v>
+      </c>
+      <c r="C9">
+        <v>2.958333333333333</v>
+      </c>
+      <c r="D9">
+        <v>75.08333333333333</v>
+      </c>
+      <c r="E9">
+        <v>1.672083333333333</v>
+      </c>
+      <c r="F9">
+        <v>139.9583333333333</v>
+      </c>
+      <c r="G9">
+        <v>139.5833333333333</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>182.5833333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>20191209</v>
+      </c>
+      <c r="C10">
+        <v>2.695652173913043</v>
+      </c>
+      <c r="D10">
+        <v>87.26086956521739</v>
+      </c>
+      <c r="E10">
+        <v>2.011739130434782</v>
+      </c>
+      <c r="F10">
+        <v>179.2608695652174</v>
+      </c>
+      <c r="G10">
+        <v>181.7826086956522</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>231.7826086956522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>20191210</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>52.83333333333334</v>
+      </c>
+      <c r="E11">
+        <v>1.485416666666667</v>
+      </c>
+      <c r="F11">
+        <v>115.8333333333333</v>
+      </c>
+      <c r="G11">
+        <v>103.9583333333333</v>
+      </c>
+      <c r="H11">
+        <v>54</v>
+      </c>
+      <c r="I11">
+        <v>136.5416666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>20191211</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>22.69565217391304</v>
+      </c>
+      <c r="E12">
+        <v>0.3204347826086957</v>
+      </c>
+      <c r="F12">
+        <v>15.60869565217391</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>58</v>
+      </c>
+      <c r="I12">
+        <v>19.78260869565218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>20191212</v>
+      </c>
+      <c r="C13">
+        <v>3.458333333333333</v>
+      </c>
+      <c r="D13">
+        <v>45.33333333333334</v>
+      </c>
+      <c r="E13">
+        <v>0.5820833333333334</v>
+      </c>
+      <c r="F13">
+        <v>36.08333333333334</v>
+      </c>
+      <c r="G13">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="H13">
+        <v>42</v>
+      </c>
+      <c r="I13">
+        <v>36.125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>20191213</v>
+      </c>
+      <c r="C14">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="D14">
+        <v>40.875</v>
+      </c>
+      <c r="E14">
+        <v>0.67</v>
+      </c>
+      <c r="F14">
+        <v>48.66666666666666</v>
+      </c>
+      <c r="G14">
+        <v>22.66666666666667</v>
+      </c>
+      <c r="H14">
+        <v>57</v>
+      </c>
+      <c r="I14">
+        <v>44.58333333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>20191214</v>
+      </c>
+      <c r="C15">
+        <v>3.416666666666667</v>
+      </c>
+      <c r="D15">
+        <v>43.91666666666666</v>
+      </c>
+      <c r="E15">
+        <v>0.4620833333333333</v>
+      </c>
+      <c r="F15">
+        <v>26.41666666666667</v>
+      </c>
+      <c r="G15">
+        <v>13.5</v>
+      </c>
+      <c r="H15">
+        <v>51</v>
+      </c>
+      <c r="I15">
+        <v>28.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>20191215</v>
+      </c>
+      <c r="C16">
+        <v>9.541666666666666</v>
+      </c>
+      <c r="D16">
+        <v>68.25</v>
+      </c>
+      <c r="E16">
+        <v>1.23375</v>
+      </c>
+      <c r="F16">
+        <v>74.125</v>
+      </c>
+      <c r="G16">
+        <v>48.29166666666666</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>20191216</v>
+      </c>
+      <c r="C17">
+        <v>2.375</v>
+      </c>
+      <c r="D17">
+        <v>66.54166666666667</v>
+      </c>
+      <c r="E17">
+        <v>1.30375</v>
+      </c>
+      <c r="F17">
+        <v>51.83333333333334</v>
+      </c>
+      <c r="G17">
+        <v>69.125</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>92.79166666666669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>20191217</v>
+      </c>
+      <c r="C18">
+        <v>2.5</v>
+      </c>
+      <c r="D18">
+        <v>15.08333333333333</v>
+      </c>
+      <c r="E18">
+        <v>0.3266666666666666</v>
+      </c>
+      <c r="F18">
+        <v>19.20833333333333</v>
+      </c>
+      <c r="G18">
+        <v>11.45833333333333</v>
+      </c>
+      <c r="H18">
+        <v>55</v>
+      </c>
+      <c r="I18">
+        <v>22.95833333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>20191218</v>
+      </c>
+      <c r="C19">
+        <v>2.375</v>
+      </c>
+      <c r="D19">
+        <v>36.45833333333334</v>
+      </c>
+      <c r="E19">
+        <v>0.4970833333333333</v>
+      </c>
+      <c r="F19">
+        <v>26.58333333333333</v>
+      </c>
+      <c r="G19">
+        <v>18.25</v>
+      </c>
+      <c r="H19">
+        <v>49</v>
+      </c>
+      <c r="I19">
+        <v>28.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>20191219</v>
+      </c>
+      <c r="C20">
+        <v>2.541666666666667</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>0.4045833333333333</v>
+      </c>
+      <c r="F20">
+        <v>25.08333333333333</v>
+      </c>
+      <c r="G20">
+        <v>12.625</v>
+      </c>
+      <c r="H20">
+        <v>52</v>
+      </c>
+      <c r="I20">
+        <v>25.91666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>20191220</v>
+      </c>
+      <c r="C21">
+        <v>3.208333333333333</v>
+      </c>
+      <c r="D21">
+        <v>46.58333333333334</v>
+      </c>
+      <c r="E21">
+        <v>0.56875</v>
+      </c>
+      <c r="F21">
+        <v>33.08333333333334</v>
+      </c>
+      <c r="G21">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="H21">
+        <v>40</v>
+      </c>
+      <c r="I21">
+        <v>33.70833333333334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>20191221</v>
+      </c>
+      <c r="C22">
+        <v>5.291666666666667</v>
+      </c>
+      <c r="D22">
+        <v>61.79166666666666</v>
+      </c>
+      <c r="E22">
+        <v>0.8795833333333333</v>
+      </c>
+      <c r="F22">
+        <v>59.375</v>
+      </c>
+      <c r="G22">
+        <v>45.16666666666666</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>64.16666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>20191222</v>
+      </c>
+      <c r="C23">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="D23">
+        <v>71.75</v>
+      </c>
+      <c r="E23">
+        <v>1.19625</v>
+      </c>
+      <c r="F23">
+        <v>80.91666666666667</v>
+      </c>
+      <c r="G23">
+        <v>65.25</v>
+      </c>
+      <c r="H23">
+        <v>14</v>
+      </c>
+      <c r="I23">
+        <v>88.04166666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>20191223</v>
+      </c>
+      <c r="C24">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="D24">
+        <v>41.75</v>
+      </c>
+      <c r="E24">
+        <v>0.9870833333333332</v>
+      </c>
+      <c r="F24">
+        <v>57.33333333333334</v>
+      </c>
+      <c r="G24">
+        <v>47.875</v>
+      </c>
+      <c r="H24">
+        <v>45</v>
+      </c>
+      <c r="I24">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>20191224</v>
+      </c>
+      <c r="C25">
+        <v>4.25</v>
+      </c>
+      <c r="D25">
+        <v>55.04166666666666</v>
+      </c>
+      <c r="E25">
+        <v>1.32875</v>
+      </c>
+      <c r="F25">
+        <v>77.125</v>
+      </c>
+      <c r="G25">
+        <v>83.58333333333333</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <v>110.9166666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>20191225</v>
+      </c>
+      <c r="C26">
+        <v>3.833333333333333</v>
+      </c>
+      <c r="D26">
+        <v>39.79166666666666</v>
+      </c>
+      <c r="E26">
+        <v>0.9879166666666668</v>
+      </c>
+      <c r="F26">
+        <v>60</v>
+      </c>
+      <c r="G26">
+        <v>61.20833333333334</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="I26">
+        <v>82.33333333333333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>20191226</v>
+      </c>
+      <c r="C27">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="D27">
+        <v>31.54166666666667</v>
+      </c>
+      <c r="E27">
+        <v>0.4391666666666667</v>
+      </c>
+      <c r="F27">
+        <v>45.91666666666666</v>
+      </c>
+      <c r="G27">
+        <v>15.875</v>
+      </c>
+      <c r="H27">
+        <v>50</v>
+      </c>
+      <c r="I27">
+        <v>43.29166666666666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>20191227</v>
+      </c>
+      <c r="C28">
+        <v>3.833333333333333</v>
+      </c>
+      <c r="D28">
+        <v>59.79166666666666</v>
+      </c>
+      <c r="E28">
+        <v>0.8879166666666666</v>
+      </c>
+      <c r="F28">
+        <v>86.45833333333333</v>
+      </c>
+      <c r="G28">
+        <v>38.16666666666666</v>
+      </c>
+      <c r="H28">
+        <v>18</v>
+      </c>
+      <c r="I28">
+        <v>68.41666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>20191228</v>
+      </c>
+      <c r="C29">
+        <v>9.375</v>
+      </c>
+      <c r="D29">
+        <v>71.70833333333333</v>
+      </c>
+      <c r="E29">
+        <v>1.591666666666667</v>
+      </c>
+      <c r="F29">
+        <v>117.375</v>
+      </c>
+      <c r="G29">
+        <v>75.25</v>
+      </c>
+      <c r="H29">
+        <v>13</v>
+      </c>
+      <c r="I29">
+        <v>102.7916666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>20191229</v>
+      </c>
+      <c r="C30">
+        <v>5.875</v>
+      </c>
+      <c r="D30">
+        <v>58.20833333333334</v>
+      </c>
+      <c r="E30">
+        <v>1.527916666666667</v>
+      </c>
+      <c r="F30">
+        <v>114.1666666666667</v>
+      </c>
+      <c r="G30">
+        <v>93.54166666666669</v>
+      </c>
+      <c r="H30">
+        <v>52</v>
+      </c>
+      <c r="I30">
+        <v>128.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>20191230</v>
+      </c>
+      <c r="C31">
+        <v>2.833333333333333</v>
+      </c>
+      <c r="D31">
+        <v>9.375</v>
+      </c>
+      <c r="E31">
+        <v>0.3154166666666667</v>
+      </c>
+      <c r="F31">
+        <v>35.58333333333334</v>
+      </c>
+      <c r="G31">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="H31">
+        <v>55</v>
+      </c>
+      <c r="I31">
+        <v>35.375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>20191231</v>
+      </c>
+      <c r="C32">
+        <v>5.25</v>
+      </c>
+      <c r="D32">
+        <v>37.20833333333334</v>
+      </c>
+      <c r="E32">
+        <v>0.5183333333333333</v>
+      </c>
+      <c r="F32">
+        <v>35.04166666666666</v>
+      </c>
+      <c r="G32">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="H32">
+        <v>47</v>
+      </c>
+      <c r="I32">
+        <v>34.04166666666666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>20200101</v>
+      </c>
+      <c r="C33">
+        <v>6.708333333333333</v>
+      </c>
+      <c r="D33">
+        <v>48.875</v>
+      </c>
+      <c r="E33">
+        <v>0.7929166666666667</v>
+      </c>
+      <c r="F33">
+        <v>55</v>
+      </c>
+      <c r="G33">
+        <v>33.70833333333334</v>
+      </c>
+      <c r="H33">
+        <v>19</v>
+      </c>
+      <c r="I33">
+        <v>51.95833333333334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>20200102</v>
+      </c>
+      <c r="C34">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="D34">
+        <v>62.54166666666666</v>
+      </c>
+      <c r="E34">
+        <v>1.179166666666667</v>
+      </c>
+      <c r="F34">
+        <v>78.91666666666667</v>
+      </c>
+      <c r="G34">
+        <v>50.875</v>
+      </c>
+      <c r="H34">
+        <v>17</v>
+      </c>
+      <c r="I34">
+        <v>70.375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>20200103</v>
+      </c>
+      <c r="C35">
+        <v>7.916666666666667</v>
+      </c>
+      <c r="D35">
+        <v>63.66666666666666</v>
+      </c>
+      <c r="E35">
+        <v>1.19875</v>
+      </c>
+      <c r="F35">
+        <v>72.04166666666667</v>
+      </c>
+      <c r="G35">
+        <v>50.5</v>
+      </c>
+      <c r="H35">
+        <v>25</v>
+      </c>
+      <c r="I35">
+        <v>70.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>20200104</v>
+      </c>
+      <c r="C36">
+        <v>7.125</v>
+      </c>
+      <c r="D36">
+        <v>58.58333333333334</v>
+      </c>
+      <c r="E36">
+        <v>1.079583333333333</v>
+      </c>
+      <c r="F36">
+        <v>66</v>
+      </c>
+      <c r="G36">
+        <v>42.16666666666666</v>
+      </c>
+      <c r="H36">
+        <v>44</v>
+      </c>
+      <c r="I36">
+        <v>60.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>20200105</v>
+      </c>
+      <c r="C37">
+        <v>7.166666666666667</v>
+      </c>
+      <c r="D37">
+        <v>65.83333333333333</v>
+      </c>
+      <c r="E37">
+        <v>1.390416666666667</v>
+      </c>
+      <c r="F37">
+        <v>79.16666666666667</v>
+      </c>
+      <c r="G37">
+        <v>63.70833333333334</v>
+      </c>
+      <c r="H37">
+        <v>14</v>
+      </c>
+      <c r="I37">
+        <v>86.04166666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>20200106</v>
+      </c>
+      <c r="C38">
+        <v>2.958333333333333</v>
+      </c>
+      <c r="D38">
+        <v>48.33333333333334</v>
+      </c>
+      <c r="E38">
+        <v>0.9866666666666668</v>
+      </c>
+      <c r="F38">
+        <v>32.79166666666666</v>
+      </c>
+      <c r="G38">
+        <v>57.41666666666666</v>
+      </c>
+      <c r="H38">
+        <v>32</v>
+      </c>
+      <c r="I38">
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>20200107</v>
+      </c>
+      <c r="C39">
+        <v>3.958333333333333</v>
+      </c>
+      <c r="D39">
+        <v>21.75</v>
+      </c>
+      <c r="E39">
+        <v>0.3799999999999999</v>
+      </c>
+      <c r="F39">
+        <v>19.25</v>
+      </c>
+      <c r="G39">
+        <v>12.95833333333333</v>
+      </c>
+      <c r="H39">
+        <v>61</v>
+      </c>
+      <c r="I39">
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>20200108</v>
+      </c>
+      <c r="C40">
+        <v>3.125</v>
+      </c>
+      <c r="D40">
+        <v>29.66666666666667</v>
+      </c>
+      <c r="E40">
+        <v>0.4379166666666667</v>
+      </c>
+      <c r="F40">
+        <v>23.79166666666667</v>
+      </c>
+      <c r="G40">
+        <v>15.875</v>
+      </c>
+      <c r="H40">
+        <v>63</v>
+      </c>
+      <c r="I40">
+        <v>27.08333333333333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>20200109</v>
+      </c>
+      <c r="C41">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="D41">
+        <v>49.25</v>
+      </c>
+      <c r="E41">
+        <v>0.76125</v>
+      </c>
+      <c r="F41">
+        <v>37.83333333333334</v>
+      </c>
+      <c r="G41">
+        <v>33.625</v>
+      </c>
+      <c r="H41">
+        <v>39</v>
+      </c>
+      <c r="I41">
+        <v>47.54166666666666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>20200110</v>
+      </c>
+      <c r="C42">
+        <v>5.875</v>
+      </c>
+      <c r="D42">
+        <v>36.20833333333334</v>
+      </c>
+      <c r="E42">
+        <v>0.6437499999999999</v>
+      </c>
+      <c r="F42">
+        <v>35.375</v>
+      </c>
+      <c r="G42">
+        <v>28.45833333333333</v>
+      </c>
+      <c r="H42">
+        <v>62</v>
+      </c>
+      <c r="I42">
+        <v>41.91666666666666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>20200111</v>
+      </c>
+      <c r="C43">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="D43">
+        <v>23.875</v>
+      </c>
+      <c r="E43">
+        <v>0.3641666666666667</v>
+      </c>
+      <c r="F43">
+        <v>19.75</v>
+      </c>
+      <c r="G43">
+        <v>10.5</v>
+      </c>
+      <c r="H43">
+        <v>58</v>
+      </c>
+      <c r="I43">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>20200112</v>
+      </c>
+      <c r="C44">
+        <v>6.875</v>
+      </c>
+      <c r="D44">
+        <v>34.25</v>
+      </c>
+      <c r="E44">
+        <v>0.4870833333333333</v>
+      </c>
+      <c r="F44">
+        <v>26.70833333333333</v>
+      </c>
+      <c r="G44">
+        <v>18.70833333333333</v>
+      </c>
+      <c r="H44">
+        <v>48</v>
+      </c>
+      <c r="I44">
+        <v>28.125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>20200113</v>
+      </c>
+      <c r="C45">
+        <v>4.083333333333333</v>
+      </c>
+      <c r="D45">
+        <v>17.75</v>
+      </c>
+      <c r="E45">
+        <v>0.365</v>
+      </c>
+      <c r="F45">
+        <v>20.33333333333333</v>
+      </c>
+      <c r="G45">
+        <v>10.70833333333333</v>
+      </c>
+      <c r="H45">
+        <v>61</v>
+      </c>
+      <c r="I45">
+        <v>21.29166666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>20200114</v>
+      </c>
+      <c r="C46">
+        <v>3.916666666666667</v>
+      </c>
+      <c r="D46">
+        <v>30</v>
+      </c>
+      <c r="E46">
+        <v>0.41875</v>
+      </c>
+      <c r="F46">
+        <v>24.5</v>
+      </c>
+      <c r="G46">
+        <v>16.625</v>
+      </c>
+      <c r="H46">
+        <v>53</v>
+      </c>
+      <c r="I46">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>20200115</v>
+      </c>
+      <c r="C47">
+        <v>6.833333333333333</v>
+      </c>
+      <c r="D47">
+        <v>56.45833333333334</v>
+      </c>
+      <c r="E47">
+        <v>0.88125</v>
+      </c>
+      <c r="F47">
+        <v>55.91666666666666</v>
+      </c>
+      <c r="G47">
+        <v>46.70833333333334</v>
+      </c>
+      <c r="H47">
+        <v>25</v>
+      </c>
+      <c r="I47">
+        <v>64.875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>20200116</v>
+      </c>
+      <c r="C48">
+        <v>6.875</v>
+      </c>
+      <c r="D48">
+        <v>48.04166666666666</v>
+      </c>
+      <c r="E48">
+        <v>0.92375</v>
+      </c>
+      <c r="F48">
+        <v>49.29166666666666</v>
+      </c>
+      <c r="G48">
+        <v>43.16666666666666</v>
+      </c>
+      <c r="H48">
+        <v>54</v>
+      </c>
+      <c r="I48">
+        <v>59.125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>20200117</v>
+      </c>
+      <c r="C49">
+        <v>11.75</v>
+      </c>
+      <c r="D49">
+        <v>65.625</v>
+      </c>
+      <c r="E49">
+        <v>1.430833333333333</v>
+      </c>
+      <c r="F49">
+        <v>76.20833333333333</v>
+      </c>
+      <c r="G49">
+        <v>68.125</v>
+      </c>
+      <c r="H49">
+        <v>26</v>
+      </c>
+      <c r="I49">
+        <v>91.66666666666669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>20200118</v>
+      </c>
+      <c r="C50">
+        <v>4.25</v>
+      </c>
+      <c r="D50">
+        <v>65.91666666666667</v>
+      </c>
+      <c r="E50">
+        <v>2.111666666666667</v>
+      </c>
+      <c r="F50">
+        <v>158.75</v>
+      </c>
+      <c r="G50">
+        <v>162.6666666666667</v>
+      </c>
+      <c r="H50">
+        <v>16</v>
+      </c>
+      <c r="I50">
+        <v>207.2083333333333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>20200119</v>
+      </c>
+      <c r="C51">
+        <v>2.5</v>
+      </c>
+      <c r="D51">
+        <v>24.5</v>
+      </c>
+      <c r="E51">
+        <v>0.5408333333333334</v>
+      </c>
+      <c r="F51">
+        <v>69.45833333333333</v>
+      </c>
+      <c r="G51">
+        <v>29.45833333333333</v>
+      </c>
+      <c r="H51">
+        <v>65</v>
+      </c>
+      <c r="I51">
+        <v>59.91666666666666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>20200120</v>
+      </c>
+      <c r="C52">
+        <v>2.375</v>
+      </c>
+      <c r="D52">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="E52">
+        <v>0.3225</v>
+      </c>
+      <c r="F52">
+        <v>26.625</v>
+      </c>
+      <c r="G52">
+        <v>9</v>
+      </c>
+      <c r="H52">
+        <v>61</v>
+      </c>
+      <c r="I52">
+        <v>27.45833333333333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>20200121</v>
+      </c>
+      <c r="C53">
+        <v>6.291666666666667</v>
+      </c>
+      <c r="D53">
+        <v>42.625</v>
+      </c>
+      <c r="E53">
+        <v>0.8329166666666666</v>
+      </c>
+      <c r="F53">
+        <v>55.29166666666666</v>
+      </c>
+      <c r="G53">
+        <v>42.29166666666666</v>
+      </c>
+      <c r="H53">
+        <v>43</v>
+      </c>
+      <c r="I53">
+        <v>59.45833333333334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>20200122</v>
+      </c>
+      <c r="C54">
+        <v>8.315789473684211</v>
+      </c>
+      <c r="D54">
+        <v>49.78947368421053</v>
+      </c>
+      <c r="E54">
+        <v>1.068421052631579</v>
+      </c>
+      <c r="F54">
+        <v>69.89473684210526</v>
+      </c>
+      <c r="G54">
+        <v>66.78947368421052</v>
+      </c>
+      <c r="H54">
+        <v>41</v>
+      </c>
+      <c r="I54">
+        <v>89.84210526315789</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>20200123</v>
+      </c>
+      <c r="C55">
+        <v>5.708333333333333</v>
+      </c>
+      <c r="D55">
+        <v>37.54166666666666</v>
+      </c>
+      <c r="E55">
+        <v>0.9341666666666668</v>
+      </c>
+      <c r="F55">
+        <v>61.125</v>
+      </c>
+      <c r="G55">
+        <v>54.16666666666666</v>
+      </c>
+      <c r="H55">
+        <v>71</v>
+      </c>
+      <c r="I55">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>20200124</v>
+      </c>
+      <c r="C56">
+        <v>6.083333333333333</v>
+      </c>
+      <c r="D56">
+        <v>21.20833333333333</v>
+      </c>
+      <c r="E56">
+        <v>0.7433333333333333</v>
+      </c>
+      <c r="F56">
+        <v>77.25</v>
+      </c>
+      <c r="G56">
+        <v>76.70833333333333</v>
+      </c>
+      <c r="H56">
+        <v>72</v>
+      </c>
+      <c r="I56">
+        <v>102.2916666666667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>20200125</v>
+      </c>
+      <c r="C57">
+        <v>9.666666666666666</v>
+      </c>
+      <c r="D57">
+        <v>32.375</v>
+      </c>
+      <c r="E57">
+        <v>0.9620833333333332</v>
+      </c>
+      <c r="F57">
+        <v>158.0833333333333</v>
+      </c>
+      <c r="G57">
+        <v>142.8333333333333</v>
+      </c>
+      <c r="H57">
+        <v>69</v>
+      </c>
+      <c r="I57">
+        <v>185.9166666666666</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>20200126</v>
+      </c>
+      <c r="C58">
+        <v>10.875</v>
+      </c>
+      <c r="D58">
+        <v>38.20833333333334</v>
+      </c>
+      <c r="E58">
+        <v>1.627083333333333</v>
+      </c>
+      <c r="F58">
+        <v>146.3333333333333</v>
+      </c>
+      <c r="G58">
+        <v>150.0833333333333</v>
+      </c>
+      <c r="H58">
+        <v>73</v>
+      </c>
+      <c r="I58">
+        <v>193.625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>20200127</v>
+      </c>
+      <c r="C59">
+        <v>10.375</v>
+      </c>
+      <c r="D59">
+        <v>37.70833333333334</v>
+      </c>
+      <c r="E59">
+        <v>1.836666666666667</v>
+      </c>
+      <c r="F59">
+        <v>138.5833333333333</v>
+      </c>
+      <c r="G59">
+        <v>160.4583333333333</v>
+      </c>
+      <c r="H59">
+        <v>79</v>
+      </c>
+      <c r="I59">
+        <v>209.7916666666666</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>20200128</v>
+      </c>
+      <c r="C60">
+        <v>13.08333333333333</v>
+      </c>
+      <c r="D60">
+        <v>39.70833333333334</v>
+      </c>
+      <c r="E60">
+        <v>2.057083333333333</v>
+      </c>
+      <c r="F60">
+        <v>145.9583333333333</v>
+      </c>
+      <c r="G60">
+        <v>171.125</v>
+      </c>
+      <c r="H60">
+        <v>109</v>
+      </c>
+      <c r="I60">
+        <v>219.7083333333333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>20200129</v>
+      </c>
+      <c r="C61">
+        <v>7.916666666666667</v>
+      </c>
+      <c r="D61">
+        <v>27.875</v>
+      </c>
+      <c r="E61">
+        <v>1.125416666666667</v>
+      </c>
+      <c r="F61">
+        <v>56.54166666666666</v>
+      </c>
+      <c r="G61">
+        <v>76.625</v>
+      </c>
+      <c r="H61">
+        <v>87</v>
+      </c>
+      <c r="I61">
+        <v>101.4583333333333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>20200130</v>
+      </c>
+      <c r="C62">
+        <v>5.541666666666667</v>
+      </c>
+      <c r="D62">
+        <v>27.41666666666667</v>
+      </c>
+      <c r="E62">
+        <v>0.79</v>
+      </c>
+      <c r="F62">
+        <v>48.16666666666666</v>
+      </c>
+      <c r="G62">
+        <v>47.20833333333334</v>
+      </c>
+      <c r="H62">
+        <v>81</v>
+      </c>
+      <c r="I62">
+        <v>65.375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>20200131</v>
+      </c>
+      <c r="C63">
+        <v>4.5</v>
+      </c>
+      <c r="D63">
+        <v>27.875</v>
+      </c>
+      <c r="E63">
+        <v>0.8016666666666666</v>
+      </c>
+      <c r="F63">
+        <v>48.25</v>
+      </c>
+      <c r="G63">
+        <v>45.79166666666666</v>
+      </c>
+      <c r="H63">
+        <v>79</v>
+      </c>
+      <c r="I63">
+        <v>65.66666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -442,7 +2243,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -477,6 +2278,2616 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>20200201</v>
+      </c>
+      <c r="C2">
+        <v>2.375</v>
+      </c>
+      <c r="D2">
+        <v>9.416666666666666</v>
+      </c>
+      <c r="E2">
+        <v>0.2608333333333333</v>
+      </c>
+      <c r="F2">
+        <v>14.25</v>
+      </c>
+      <c r="G2">
+        <v>8.416666666666666</v>
+      </c>
+      <c r="H2">
+        <v>76</v>
+      </c>
+      <c r="I2">
+        <v>21.83333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>20200202</v>
+      </c>
+      <c r="C3">
+        <v>2.25</v>
+      </c>
+      <c r="D3">
+        <v>11.33333333333333</v>
+      </c>
+      <c r="E3">
+        <v>0.4375</v>
+      </c>
+      <c r="F3">
+        <v>34.125</v>
+      </c>
+      <c r="G3">
+        <v>32.66666666666666</v>
+      </c>
+      <c r="H3">
+        <v>67</v>
+      </c>
+      <c r="I3">
+        <v>49.58333333333334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>20200203</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>13.04166666666667</v>
+      </c>
+      <c r="E4">
+        <v>0.34125</v>
+      </c>
+      <c r="F4">
+        <v>26.79166666666667</v>
+      </c>
+      <c r="G4">
+        <v>16.83333333333333</v>
+      </c>
+      <c r="H4">
+        <v>68</v>
+      </c>
+      <c r="I4">
+        <v>30.625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>20200204</v>
+      </c>
+      <c r="C5">
+        <v>2.125</v>
+      </c>
+      <c r="D5">
+        <v>12.08333333333333</v>
+      </c>
+      <c r="E5">
+        <v>0.3016666666666667</v>
+      </c>
+      <c r="F5">
+        <v>18.91666666666667</v>
+      </c>
+      <c r="G5">
+        <v>11.58333333333333</v>
+      </c>
+      <c r="H5">
+        <v>67</v>
+      </c>
+      <c r="I5">
+        <v>24.33333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>20200205</v>
+      </c>
+      <c r="C6">
+        <v>3.125</v>
+      </c>
+      <c r="D6">
+        <v>18.45833333333333</v>
+      </c>
+      <c r="E6">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="F6">
+        <v>32.5</v>
+      </c>
+      <c r="G6">
+        <v>25.45833333333333</v>
+      </c>
+      <c r="H6">
+        <v>51</v>
+      </c>
+      <c r="I6">
+        <v>36.79166666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>20200206</v>
+      </c>
+      <c r="C7">
+        <v>3.708333333333333</v>
+      </c>
+      <c r="D7">
+        <v>23.66666666666667</v>
+      </c>
+      <c r="E7">
+        <v>0.9841666666666667</v>
+      </c>
+      <c r="F7">
+        <v>36.58333333333334</v>
+      </c>
+      <c r="G7">
+        <v>41.91666666666666</v>
+      </c>
+      <c r="H7">
+        <v>45</v>
+      </c>
+      <c r="I7">
+        <v>58.08333333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>20200207</v>
+      </c>
+      <c r="C8">
+        <v>3.5</v>
+      </c>
+      <c r="D8">
+        <v>34.375</v>
+      </c>
+      <c r="E8">
+        <v>1.105</v>
+      </c>
+      <c r="F8">
+        <v>51.91666666666666</v>
+      </c>
+      <c r="G8">
+        <v>71.54166666666667</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>95.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>20200208</v>
+      </c>
+      <c r="C9">
+        <v>3.916666666666667</v>
+      </c>
+      <c r="D9">
+        <v>30.5</v>
+      </c>
+      <c r="E9">
+        <v>0.8491666666666666</v>
+      </c>
+      <c r="F9">
+        <v>48.66666666666666</v>
+      </c>
+      <c r="G9">
+        <v>59.95833333333334</v>
+      </c>
+      <c r="H9">
+        <v>70</v>
+      </c>
+      <c r="I9">
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>20200209</v>
+      </c>
+      <c r="C10">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="D10">
+        <v>42.04166666666666</v>
+      </c>
+      <c r="E10">
+        <v>1.33625</v>
+      </c>
+      <c r="F10">
+        <v>107.5</v>
+      </c>
+      <c r="G10">
+        <v>119.8333333333333</v>
+      </c>
+      <c r="H10">
+        <v>59</v>
+      </c>
+      <c r="I10">
+        <v>157.625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>20200210</v>
+      </c>
+      <c r="C11">
+        <v>3.958333333333333</v>
+      </c>
+      <c r="D11">
+        <v>50.04166666666666</v>
+      </c>
+      <c r="E11">
+        <v>1.419166666666667</v>
+      </c>
+      <c r="F11">
+        <v>103</v>
+      </c>
+      <c r="G11">
+        <v>124.2916666666667</v>
+      </c>
+      <c r="H11">
+        <v>76</v>
+      </c>
+      <c r="I11">
+        <v>163.7083333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>20200211</v>
+      </c>
+      <c r="C12">
+        <v>8.458333333333334</v>
+      </c>
+      <c r="D12">
+        <v>55.66666666666666</v>
+      </c>
+      <c r="E12">
+        <v>2.317083333333333</v>
+      </c>
+      <c r="F12">
+        <v>141.4166666666667</v>
+      </c>
+      <c r="G12">
+        <v>181.9166666666666</v>
+      </c>
+      <c r="H12">
+        <v>96</v>
+      </c>
+      <c r="I12">
+        <v>231.2083333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>20200212</v>
+      </c>
+      <c r="C13">
+        <v>4.5</v>
+      </c>
+      <c r="D13">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>2.325416666666667</v>
+      </c>
+      <c r="F13">
+        <v>144.875</v>
+      </c>
+      <c r="G13">
+        <v>206.375</v>
+      </c>
+      <c r="H13">
+        <v>112</v>
+      </c>
+      <c r="I13">
+        <v>256.375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>20200213</v>
+      </c>
+      <c r="C14">
+        <v>3.25</v>
+      </c>
+      <c r="D14">
+        <v>47.58333333333334</v>
+      </c>
+      <c r="E14">
+        <v>2.16375</v>
+      </c>
+      <c r="F14">
+        <v>143.1666666666667</v>
+      </c>
+      <c r="G14">
+        <v>203.625</v>
+      </c>
+      <c r="H14">
+        <v>74</v>
+      </c>
+      <c r="I14">
+        <v>253.625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>20200214</v>
+      </c>
+      <c r="C15">
+        <v>2.25</v>
+      </c>
+      <c r="D15">
+        <v>18.54166666666667</v>
+      </c>
+      <c r="E15">
+        <v>0.9120833333333334</v>
+      </c>
+      <c r="F15">
+        <v>38.29166666666666</v>
+      </c>
+      <c r="G15">
+        <v>56.79166666666666</v>
+      </c>
+      <c r="H15">
+        <v>59</v>
+      </c>
+      <c r="I15">
+        <v>76.875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>20200215</v>
+      </c>
+      <c r="C16">
+        <v>2.083333333333333</v>
+      </c>
+      <c r="D16">
+        <v>4.583333333333333</v>
+      </c>
+      <c r="E16">
+        <v>0.2175</v>
+      </c>
+      <c r="F16">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="G16">
+        <v>6.708333333333333</v>
+      </c>
+      <c r="H16">
+        <v>69</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>20200216</v>
+      </c>
+      <c r="C17">
+        <v>2.041666666666667</v>
+      </c>
+      <c r="D17">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="E17">
+        <v>0.205</v>
+      </c>
+      <c r="F17">
+        <v>8.625</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>73</v>
+      </c>
+      <c r="I17">
+        <v>21.16666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>20200217</v>
+      </c>
+      <c r="C18">
+        <v>1.958333333333333</v>
+      </c>
+      <c r="D18">
+        <v>11.5</v>
+      </c>
+      <c r="E18">
+        <v>0.25125</v>
+      </c>
+      <c r="F18">
+        <v>13.66666666666667</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>72</v>
+      </c>
+      <c r="I18">
+        <v>21.20833333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>20200218</v>
+      </c>
+      <c r="C19">
+        <v>2.708333333333333</v>
+      </c>
+      <c r="D19">
+        <v>32.75</v>
+      </c>
+      <c r="E19">
+        <v>0.4841666666666666</v>
+      </c>
+      <c r="F19">
+        <v>23.04166666666667</v>
+      </c>
+      <c r="G19">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="H19">
+        <v>62</v>
+      </c>
+      <c r="I19">
+        <v>25.29166666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>20200219</v>
+      </c>
+      <c r="C20">
+        <v>9.875</v>
+      </c>
+      <c r="D20">
+        <v>38.66666666666666</v>
+      </c>
+      <c r="E20">
+        <v>1.15375</v>
+      </c>
+      <c r="F20">
+        <v>49.70833333333334</v>
+      </c>
+      <c r="G20">
+        <v>55.45833333333334</v>
+      </c>
+      <c r="H20">
+        <v>67</v>
+      </c>
+      <c r="I20">
+        <v>75.16666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>20200220</v>
+      </c>
+      <c r="C21">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="D21">
+        <v>29.29166666666667</v>
+      </c>
+      <c r="E21">
+        <v>1.4175</v>
+      </c>
+      <c r="F21">
+        <v>76.125</v>
+      </c>
+      <c r="G21">
+        <v>110.5833333333333</v>
+      </c>
+      <c r="H21">
+        <v>65</v>
+      </c>
+      <c r="I21">
+        <v>144.7083333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>20200221</v>
+      </c>
+      <c r="C22">
+        <v>2.458333333333333</v>
+      </c>
+      <c r="D22">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="E22">
+        <v>0.8558333333333333</v>
+      </c>
+      <c r="F22">
+        <v>97.875</v>
+      </c>
+      <c r="G22">
+        <v>80.16666666666667</v>
+      </c>
+      <c r="H22">
+        <v>75</v>
+      </c>
+      <c r="I22">
+        <v>125.2083333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>20200222</v>
+      </c>
+      <c r="C23">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="D23">
+        <v>10.41666666666667</v>
+      </c>
+      <c r="E23">
+        <v>0.22875</v>
+      </c>
+      <c r="F23">
+        <v>16.08333333333333</v>
+      </c>
+      <c r="G23">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="H23">
+        <v>79</v>
+      </c>
+      <c r="I23">
+        <v>23.08333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>20200223</v>
+      </c>
+      <c r="C24">
+        <v>4.75</v>
+      </c>
+      <c r="D24">
+        <v>35.75</v>
+      </c>
+      <c r="E24">
+        <v>0.5983333333333333</v>
+      </c>
+      <c r="F24">
+        <v>48.70833333333334</v>
+      </c>
+      <c r="G24">
+        <v>38.75</v>
+      </c>
+      <c r="H24">
+        <v>64</v>
+      </c>
+      <c r="I24">
+        <v>53.66666666666666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>20200224</v>
+      </c>
+      <c r="C25">
+        <v>8.166666666666666</v>
+      </c>
+      <c r="D25">
+        <v>39</v>
+      </c>
+      <c r="E25">
+        <v>0.9858333333333332</v>
+      </c>
+      <c r="F25">
+        <v>86.20833333333333</v>
+      </c>
+      <c r="G25">
+        <v>61.875</v>
+      </c>
+      <c r="H25">
+        <v>48</v>
+      </c>
+      <c r="I25">
+        <v>84.95833333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>20200225</v>
+      </c>
+      <c r="C26">
+        <v>9.583333333333334</v>
+      </c>
+      <c r="D26">
+        <v>26.20833333333333</v>
+      </c>
+      <c r="E26">
+        <v>0.8895833333333334</v>
+      </c>
+      <c r="F26">
+        <v>76.29166666666667</v>
+      </c>
+      <c r="G26">
+        <v>50.45833333333334</v>
+      </c>
+      <c r="H26">
+        <v>68</v>
+      </c>
+      <c r="I26">
+        <v>71.33333333333333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>20200226</v>
+      </c>
+      <c r="C27">
+        <v>5.291666666666667</v>
+      </c>
+      <c r="D27">
+        <v>22.04166666666667</v>
+      </c>
+      <c r="E27">
+        <v>0.5458333333333333</v>
+      </c>
+      <c r="F27">
+        <v>46.66666666666666</v>
+      </c>
+      <c r="G27">
+        <v>36.95833333333334</v>
+      </c>
+      <c r="H27">
+        <v>79</v>
+      </c>
+      <c r="I27">
+        <v>52.29166666666666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>20200227</v>
+      </c>
+      <c r="C28">
+        <v>3.75</v>
+      </c>
+      <c r="D28">
+        <v>24.25</v>
+      </c>
+      <c r="E28">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="F28">
+        <v>32.91666666666666</v>
+      </c>
+      <c r="G28">
+        <v>28.5</v>
+      </c>
+      <c r="H28">
+        <v>60</v>
+      </c>
+      <c r="I28">
+        <v>40.66666666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>20200228</v>
+      </c>
+      <c r="C29">
+        <v>3.833333333333333</v>
+      </c>
+      <c r="D29">
+        <v>26.44444444444444</v>
+      </c>
+      <c r="E29">
+        <v>0.6983333333333334</v>
+      </c>
+      <c r="F29">
+        <v>63.44444444444444</v>
+      </c>
+      <c r="G29">
+        <v>68.22222222222223</v>
+      </c>
+      <c r="H29">
+        <v>73</v>
+      </c>
+      <c r="I29">
+        <v>91.61111111111111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>20200229</v>
+      </c>
+      <c r="C30">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="D30">
+        <v>31.66666666666667</v>
+      </c>
+      <c r="E30">
+        <v>1.235833333333333</v>
+      </c>
+      <c r="F30">
+        <v>60.375</v>
+      </c>
+      <c r="G30">
+        <v>88.875</v>
+      </c>
+      <c r="H30">
+        <v>58</v>
+      </c>
+      <c r="I30">
+        <v>118.125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>20200301</v>
+      </c>
+      <c r="C31">
+        <v>2.208333333333333</v>
+      </c>
+      <c r="D31">
+        <v>19.70833333333333</v>
+      </c>
+      <c r="E31">
+        <v>0.8770833333333333</v>
+      </c>
+      <c r="F31">
+        <v>21.83333333333333</v>
+      </c>
+      <c r="G31">
+        <v>23.16666666666667</v>
+      </c>
+      <c r="H31">
+        <v>76</v>
+      </c>
+      <c r="I31">
+        <v>39.08333333333334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>20200302</v>
+      </c>
+      <c r="C32">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="D32">
+        <v>27.75</v>
+      </c>
+      <c r="E32">
+        <v>0.50625</v>
+      </c>
+      <c r="F32">
+        <v>26.54166666666667</v>
+      </c>
+      <c r="G32">
+        <v>22.625</v>
+      </c>
+      <c r="H32">
+        <v>66</v>
+      </c>
+      <c r="I32">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>20200303</v>
+      </c>
+      <c r="C33">
+        <v>2.041666666666667</v>
+      </c>
+      <c r="D33">
+        <v>9.083333333333334</v>
+      </c>
+      <c r="E33">
+        <v>0.3254166666666666</v>
+      </c>
+      <c r="F33">
+        <v>22</v>
+      </c>
+      <c r="G33">
+        <v>16.25</v>
+      </c>
+      <c r="H33">
+        <v>78</v>
+      </c>
+      <c r="I33">
+        <v>33.70833333333334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>20200304</v>
+      </c>
+      <c r="C34">
+        <v>2.25</v>
+      </c>
+      <c r="D34">
+        <v>9.083333333333334</v>
+      </c>
+      <c r="E34">
+        <v>0.2495833333333333</v>
+      </c>
+      <c r="F34">
+        <v>15.125</v>
+      </c>
+      <c r="G34">
+        <v>9.833333333333334</v>
+      </c>
+      <c r="H34">
+        <v>75</v>
+      </c>
+      <c r="I34">
+        <v>23.16666666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>20200305</v>
+      </c>
+      <c r="C35">
+        <v>4.041666666666667</v>
+      </c>
+      <c r="D35">
+        <v>26.79166666666667</v>
+      </c>
+      <c r="E35">
+        <v>0.49625</v>
+      </c>
+      <c r="F35">
+        <v>46.45833333333334</v>
+      </c>
+      <c r="G35">
+        <v>37.08333333333334</v>
+      </c>
+      <c r="H35">
+        <v>82</v>
+      </c>
+      <c r="I35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>20200306</v>
+      </c>
+      <c r="C36">
+        <v>4.416666666666667</v>
+      </c>
+      <c r="D36">
+        <v>42.70833333333334</v>
+      </c>
+      <c r="E36">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="F36">
+        <v>79.95833333333333</v>
+      </c>
+      <c r="G36">
+        <v>83.45833333333333</v>
+      </c>
+      <c r="H36">
+        <v>67</v>
+      </c>
+      <c r="I36">
+        <v>110.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>20200307</v>
+      </c>
+      <c r="C37">
+        <v>2.916666666666667</v>
+      </c>
+      <c r="D37">
+        <v>20.29166666666667</v>
+      </c>
+      <c r="E37">
+        <v>0.6683333333333333</v>
+      </c>
+      <c r="F37">
+        <v>44.91666666666666</v>
+      </c>
+      <c r="G37">
+        <v>62.83333333333334</v>
+      </c>
+      <c r="H37">
+        <v>88</v>
+      </c>
+      <c r="I37">
+        <v>84.79166666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>20200308</v>
+      </c>
+      <c r="C38">
+        <v>2.875</v>
+      </c>
+      <c r="D38">
+        <v>28.41666666666667</v>
+      </c>
+      <c r="E38">
+        <v>1.001666666666667</v>
+      </c>
+      <c r="F38">
+        <v>61.95833333333334</v>
+      </c>
+      <c r="G38">
+        <v>99.08333333333331</v>
+      </c>
+      <c r="H38">
+        <v>86</v>
+      </c>
+      <c r="I38">
+        <v>130.3333333333333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>20200309</v>
+      </c>
+      <c r="C39">
+        <v>2.5</v>
+      </c>
+      <c r="D39">
+        <v>23.875</v>
+      </c>
+      <c r="E39">
+        <v>0.7712500000000001</v>
+      </c>
+      <c r="F39">
+        <v>33.54166666666666</v>
+      </c>
+      <c r="G39">
+        <v>53.41666666666666</v>
+      </c>
+      <c r="H39">
+        <v>69</v>
+      </c>
+      <c r="I39">
+        <v>72.625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>20200310</v>
+      </c>
+      <c r="C40">
+        <v>2.208333333333333</v>
+      </c>
+      <c r="D40">
+        <v>15.54166666666667</v>
+      </c>
+      <c r="E40">
+        <v>0.27375</v>
+      </c>
+      <c r="F40">
+        <v>30.125</v>
+      </c>
+      <c r="G40">
+        <v>11.25</v>
+      </c>
+      <c r="H40">
+        <v>77</v>
+      </c>
+      <c r="I40">
+        <v>33.08333333333334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>20200311</v>
+      </c>
+      <c r="C41">
+        <v>3.833333333333333</v>
+      </c>
+      <c r="D41">
+        <v>42.16666666666666</v>
+      </c>
+      <c r="E41">
+        <v>0.5270833333333333</v>
+      </c>
+      <c r="F41">
+        <v>48.54166666666666</v>
+      </c>
+      <c r="G41">
+        <v>28.54166666666667</v>
+      </c>
+      <c r="H41">
+        <v>59</v>
+      </c>
+      <c r="I41">
+        <v>43.58333333333334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>20200312</v>
+      </c>
+      <c r="C42">
+        <v>2.875</v>
+      </c>
+      <c r="D42">
+        <v>25.625</v>
+      </c>
+      <c r="E42">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="F42">
+        <v>42.75</v>
+      </c>
+      <c r="G42">
+        <v>21.83333333333333</v>
+      </c>
+      <c r="H42">
+        <v>80</v>
+      </c>
+      <c r="I42">
+        <v>42.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>20200313</v>
+      </c>
+      <c r="C43">
+        <v>2.541666666666667</v>
+      </c>
+      <c r="D43">
+        <v>12.75</v>
+      </c>
+      <c r="E43">
+        <v>0.29375</v>
+      </c>
+      <c r="F43">
+        <v>21.33333333333333</v>
+      </c>
+      <c r="G43">
+        <v>10.375</v>
+      </c>
+      <c r="H43">
+        <v>79</v>
+      </c>
+      <c r="I43">
+        <v>28.83333333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>20200314</v>
+      </c>
+      <c r="C44">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="D44">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="E44">
+        <v>0.28125</v>
+      </c>
+      <c r="F44">
+        <v>37.45833333333334</v>
+      </c>
+      <c r="G44">
+        <v>9.208333333333334</v>
+      </c>
+      <c r="H44">
+        <v>86</v>
+      </c>
+      <c r="I44">
+        <v>37.83333333333334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>20200315</v>
+      </c>
+      <c r="C45">
+        <v>2.041666666666667</v>
+      </c>
+      <c r="D45">
+        <v>11.375</v>
+      </c>
+      <c r="E45">
+        <v>0.23625</v>
+      </c>
+      <c r="F45">
+        <v>31.375</v>
+      </c>
+      <c r="G45">
+        <v>6.75</v>
+      </c>
+      <c r="H45">
+        <v>90</v>
+      </c>
+      <c r="I45">
+        <v>34.125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>20200316</v>
+      </c>
+      <c r="C46">
+        <v>2.916666666666667</v>
+      </c>
+      <c r="D46">
+        <v>21.875</v>
+      </c>
+      <c r="E46">
+        <v>0.3791666666666666</v>
+      </c>
+      <c r="F46">
+        <v>70.54166666666667</v>
+      </c>
+      <c r="G46">
+        <v>24.91666666666667</v>
+      </c>
+      <c r="H46">
+        <v>76</v>
+      </c>
+      <c r="I46">
+        <v>60.58333333333334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>20200317</v>
+      </c>
+      <c r="C47">
+        <v>2.25</v>
+      </c>
+      <c r="D47">
+        <v>34</v>
+      </c>
+      <c r="E47">
+        <v>0.4641666666666666</v>
+      </c>
+      <c r="F47">
+        <v>60.875</v>
+      </c>
+      <c r="G47">
+        <v>30.5</v>
+      </c>
+      <c r="H47">
+        <v>97</v>
+      </c>
+      <c r="I47">
+        <v>54.16666666666666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>20200318</v>
+      </c>
+      <c r="C48">
+        <v>4.318181818181818</v>
+      </c>
+      <c r="D48">
+        <v>37.27272727272727</v>
+      </c>
+      <c r="E48">
+        <v>0.4786363636363636</v>
+      </c>
+      <c r="F48">
+        <v>104.7272727272727</v>
+      </c>
+      <c r="G48">
+        <v>39.31818181818182</v>
+      </c>
+      <c r="H48">
+        <v>85</v>
+      </c>
+      <c r="I48">
+        <v>82.09090909090909</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>20200319</v>
+      </c>
+      <c r="C49">
+        <v>2.25</v>
+      </c>
+      <c r="D49">
+        <v>8.583333333333334</v>
+      </c>
+      <c r="E49">
+        <v>0.20875</v>
+      </c>
+      <c r="F49">
+        <v>46.125</v>
+      </c>
+      <c r="G49">
+        <v>7.833333333333333</v>
+      </c>
+      <c r="H49">
+        <v>88</v>
+      </c>
+      <c r="I49">
+        <v>45.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>20200320</v>
+      </c>
+      <c r="C50">
+        <v>3.791666666666667</v>
+      </c>
+      <c r="D50">
+        <v>37.08333333333334</v>
+      </c>
+      <c r="E50">
+        <v>0.4175</v>
+      </c>
+      <c r="F50">
+        <v>71.16666666666667</v>
+      </c>
+      <c r="G50">
+        <v>30.25</v>
+      </c>
+      <c r="H50">
+        <v>76</v>
+      </c>
+      <c r="I50">
+        <v>60.875</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>20200321</v>
+      </c>
+      <c r="C51">
+        <v>8.208333333333334</v>
+      </c>
+      <c r="D51">
+        <v>22.41666666666667</v>
+      </c>
+      <c r="E51">
+        <v>0.5245833333333333</v>
+      </c>
+      <c r="F51">
+        <v>92.125</v>
+      </c>
+      <c r="G51">
+        <v>26.625</v>
+      </c>
+      <c r="H51">
+        <v>93</v>
+      </c>
+      <c r="I51">
+        <v>70.41666666666667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>20200322</v>
+      </c>
+      <c r="C52">
+        <v>3.625</v>
+      </c>
+      <c r="D52">
+        <v>25.08333333333333</v>
+      </c>
+      <c r="E52">
+        <v>0.3895833333333333</v>
+      </c>
+      <c r="F52">
+        <v>74</v>
+      </c>
+      <c r="G52">
+        <v>28.79166666666667</v>
+      </c>
+      <c r="H52">
+        <v>112</v>
+      </c>
+      <c r="I52">
+        <v>62.29166666666666</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>20200323</v>
+      </c>
+      <c r="C53">
+        <v>3.875</v>
+      </c>
+      <c r="D53">
+        <v>32.08333333333334</v>
+      </c>
+      <c r="E53">
+        <v>0.4404166666666667</v>
+      </c>
+      <c r="F53">
+        <v>57.79166666666666</v>
+      </c>
+      <c r="G53">
+        <v>28.70833333333333</v>
+      </c>
+      <c r="H53">
+        <v>94</v>
+      </c>
+      <c r="I53">
+        <v>52.04166666666666</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>20200324</v>
+      </c>
+      <c r="C54">
+        <v>11.54166666666667</v>
+      </c>
+      <c r="D54">
+        <v>37.04166666666666</v>
+      </c>
+      <c r="E54">
+        <v>0.87875</v>
+      </c>
+      <c r="F54">
+        <v>64.83333333333333</v>
+      </c>
+      <c r="G54">
+        <v>47.375</v>
+      </c>
+      <c r="H54">
+        <v>98</v>
+      </c>
+      <c r="I54">
+        <v>67.20833333333333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>20200325</v>
+      </c>
+      <c r="C55">
+        <v>10.625</v>
+      </c>
+      <c r="D55">
+        <v>53.70833333333334</v>
+      </c>
+      <c r="E55">
+        <v>1.035833333333333</v>
+      </c>
+      <c r="F55">
+        <v>113.375</v>
+      </c>
+      <c r="G55">
+        <v>120.4166666666667</v>
+      </c>
+      <c r="H55">
+        <v>130</v>
+      </c>
+      <c r="I55">
+        <v>158.125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>20200326</v>
+      </c>
+      <c r="C56">
+        <v>2.875</v>
+      </c>
+      <c r="D56">
+        <v>9.375</v>
+      </c>
+      <c r="E56">
+        <v>0.2595833333333333</v>
+      </c>
+      <c r="F56">
+        <v>25.45833333333333</v>
+      </c>
+      <c r="G56">
+        <v>11.41666666666667</v>
+      </c>
+      <c r="H56">
+        <v>117</v>
+      </c>
+      <c r="I56">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>20200327</v>
+      </c>
+      <c r="C57">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="D57">
+        <v>8.75</v>
+      </c>
+      <c r="E57">
+        <v>0.24625</v>
+      </c>
+      <c r="F57">
+        <v>22</v>
+      </c>
+      <c r="G57">
+        <v>5.541666666666667</v>
+      </c>
+      <c r="H57">
+        <v>79</v>
+      </c>
+      <c r="I57">
+        <v>26.54166666666667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>20200328</v>
+      </c>
+      <c r="C58">
+        <v>2.25</v>
+      </c>
+      <c r="D58">
+        <v>16.75</v>
+      </c>
+      <c r="E58">
+        <v>0.2395833333333333</v>
+      </c>
+      <c r="F58">
+        <v>25.04166666666667</v>
+      </c>
+      <c r="G58">
+        <v>8.791666666666666</v>
+      </c>
+      <c r="H58">
+        <v>77</v>
+      </c>
+      <c r="I58">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>20200329</v>
+      </c>
+      <c r="C59">
+        <v>6.583333333333333</v>
+      </c>
+      <c r="D59">
+        <v>36.45833333333334</v>
+      </c>
+      <c r="E59">
+        <v>0.5187499999999999</v>
+      </c>
+      <c r="F59">
+        <v>69.70833333333333</v>
+      </c>
+      <c r="G59">
+        <v>43.20833333333334</v>
+      </c>
+      <c r="H59">
+        <v>96</v>
+      </c>
+      <c r="I59">
+        <v>65.91666666666667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>20200330</v>
+      </c>
+      <c r="C60">
+        <v>6.708333333333333</v>
+      </c>
+      <c r="D60">
+        <v>37.33333333333334</v>
+      </c>
+      <c r="E60">
+        <v>0.6854166666666667</v>
+      </c>
+      <c r="F60">
+        <v>87.66666666666667</v>
+      </c>
+      <c r="G60">
+        <v>69</v>
+      </c>
+      <c r="H60">
+        <v>103</v>
+      </c>
+      <c r="I60">
+        <v>92.54166666666669</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>20200331</v>
+      </c>
+      <c r="C61">
+        <v>3.958333333333333</v>
+      </c>
+      <c r="D61">
+        <v>29.20833333333333</v>
+      </c>
+      <c r="E61">
+        <v>0.505</v>
+      </c>
+      <c r="F61">
+        <v>77.625</v>
+      </c>
+      <c r="G61">
+        <v>65.5</v>
+      </c>
+      <c r="H61">
+        <v>107</v>
+      </c>
+      <c r="I61">
+        <v>88.29166666666667</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>20200401</v>
+      </c>
+      <c r="C62">
+        <v>2.375</v>
+      </c>
+      <c r="D62">
+        <v>10.125</v>
+      </c>
+      <c r="E62">
+        <v>0.1916666666666666</v>
+      </c>
+      <c r="F62">
+        <v>20.29166666666667</v>
+      </c>
+      <c r="G62">
+        <v>8.958333333333334</v>
+      </c>
+      <c r="H62">
+        <v>92</v>
+      </c>
+      <c r="I62">
+        <v>29.375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>20200402</v>
+      </c>
+      <c r="C63">
+        <v>2.75</v>
+      </c>
+      <c r="D63">
+        <v>20.29166666666667</v>
+      </c>
+      <c r="E63">
+        <v>0.3004166666666666</v>
+      </c>
+      <c r="F63">
+        <v>33.29166666666666</v>
+      </c>
+      <c r="G63">
+        <v>15.70833333333333</v>
+      </c>
+      <c r="H63">
+        <v>84</v>
+      </c>
+      <c r="I63">
+        <v>36.33333333333334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>20200403</v>
+      </c>
+      <c r="C64">
+        <v>2.541666666666667</v>
+      </c>
+      <c r="D64">
+        <v>23.5</v>
+      </c>
+      <c r="E64">
+        <v>0.3025</v>
+      </c>
+      <c r="F64">
+        <v>36.25</v>
+      </c>
+      <c r="G64">
+        <v>14.54166666666667</v>
+      </c>
+      <c r="H64">
+        <v>92</v>
+      </c>
+      <c r="I64">
+        <v>38.66666666666666</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65">
+        <v>20200404</v>
+      </c>
+      <c r="C65">
+        <v>2.958333333333333</v>
+      </c>
+      <c r="D65">
+        <v>12.66666666666667</v>
+      </c>
+      <c r="E65">
+        <v>0.3245833333333333</v>
+      </c>
+      <c r="F65">
+        <v>151.7083333333333</v>
+      </c>
+      <c r="G65">
+        <v>23.125</v>
+      </c>
+      <c r="H65">
+        <v>94</v>
+      </c>
+      <c r="I65">
+        <v>101.0833333333333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66">
+        <v>20200405</v>
+      </c>
+      <c r="C66">
+        <v>4.541666666666667</v>
+      </c>
+      <c r="D66">
+        <v>28.95833333333333</v>
+      </c>
+      <c r="E66">
+        <v>0.4375</v>
+      </c>
+      <c r="F66">
+        <v>88.29166666666667</v>
+      </c>
+      <c r="G66">
+        <v>29.33333333333333</v>
+      </c>
+      <c r="H66">
+        <v>101</v>
+      </c>
+      <c r="I66">
+        <v>69.33333333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>20200406</v>
+      </c>
+      <c r="C67">
+        <v>6.5</v>
+      </c>
+      <c r="D67">
+        <v>47.08333333333334</v>
+      </c>
+      <c r="E67">
+        <v>0.5720833333333334</v>
+      </c>
+      <c r="F67">
+        <v>120.2083333333333</v>
+      </c>
+      <c r="G67">
+        <v>60.375</v>
+      </c>
+      <c r="H67">
+        <v>123</v>
+      </c>
+      <c r="I67">
+        <v>88.16666666666667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>20200407</v>
+      </c>
+      <c r="C68">
+        <v>5.416666666666667</v>
+      </c>
+      <c r="D68">
+        <v>36.45833333333334</v>
+      </c>
+      <c r="E68">
+        <v>0.58375</v>
+      </c>
+      <c r="F68">
+        <v>105.9583333333333</v>
+      </c>
+      <c r="G68">
+        <v>48.66666666666666</v>
+      </c>
+      <c r="H68">
+        <v>92</v>
+      </c>
+      <c r="I68">
+        <v>83.41666666666667</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>20200408</v>
+      </c>
+      <c r="C69">
+        <v>4.708333333333333</v>
+      </c>
+      <c r="D69">
+        <v>30.54166666666667</v>
+      </c>
+      <c r="E69">
+        <v>0.4875</v>
+      </c>
+      <c r="F69">
+        <v>61</v>
+      </c>
+      <c r="G69">
+        <v>21.625</v>
+      </c>
+      <c r="H69">
+        <v>82</v>
+      </c>
+      <c r="I69">
+        <v>54.95833333333334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>20200409</v>
+      </c>
+      <c r="C70">
+        <v>3.043478260869565</v>
+      </c>
+      <c r="D70">
+        <v>18.8695652173913</v>
+      </c>
+      <c r="E70">
+        <v>0.4560869565217391</v>
+      </c>
+      <c r="F70">
+        <v>49.08695652173913</v>
+      </c>
+      <c r="G70">
+        <v>33.26086956521739</v>
+      </c>
+      <c r="H70">
+        <v>97</v>
+      </c>
+      <c r="I70">
+        <v>52.17391304347826</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>20200410</v>
+      </c>
+      <c r="C71">
+        <v>2.708333333333333</v>
+      </c>
+      <c r="D71">
+        <v>24.33333333333333</v>
+      </c>
+      <c r="E71">
+        <v>0.4524999999999999</v>
+      </c>
+      <c r="F71">
+        <v>49.41666666666666</v>
+      </c>
+      <c r="G71">
+        <v>39.375</v>
+      </c>
+      <c r="H71">
+        <v>123</v>
+      </c>
+      <c r="I71">
+        <v>56.625</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>20200411</v>
+      </c>
+      <c r="C72">
+        <v>2.458333333333333</v>
+      </c>
+      <c r="D72">
+        <v>19.04166666666667</v>
+      </c>
+      <c r="E72">
+        <v>0.31875</v>
+      </c>
+      <c r="F72">
+        <v>38.41666666666666</v>
+      </c>
+      <c r="G72">
+        <v>21.33333333333333</v>
+      </c>
+      <c r="H72">
+        <v>101</v>
+      </c>
+      <c r="I72">
+        <v>42.33333333333334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>20200412</v>
+      </c>
+      <c r="C73">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="D73">
+        <v>12.70833333333333</v>
+      </c>
+      <c r="E73">
+        <v>0.24875</v>
+      </c>
+      <c r="F73">
+        <v>50.04166666666666</v>
+      </c>
+      <c r="G73">
+        <v>16.58333333333333</v>
+      </c>
+      <c r="H73">
+        <v>104</v>
+      </c>
+      <c r="I73">
+        <v>46.58333333333334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>20200413</v>
+      </c>
+      <c r="C74">
+        <v>2.5</v>
+      </c>
+      <c r="D74">
+        <v>32.70833333333334</v>
+      </c>
+      <c r="E74">
+        <v>0.4295833333333334</v>
+      </c>
+      <c r="F74">
+        <v>67.20833333333333</v>
+      </c>
+      <c r="G74">
+        <v>26</v>
+      </c>
+      <c r="H74">
+        <v>103</v>
+      </c>
+      <c r="I74">
+        <v>58.20833333333334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>20200414</v>
+      </c>
+      <c r="C75">
+        <v>7.583333333333333</v>
+      </c>
+      <c r="D75">
+        <v>46.5</v>
+      </c>
+      <c r="E75">
+        <v>0.6141666666666666</v>
+      </c>
+      <c r="F75">
+        <v>101.0833333333333</v>
+      </c>
+      <c r="G75">
+        <v>66.20833333333333</v>
+      </c>
+      <c r="H75">
+        <v>164</v>
+      </c>
+      <c r="I75">
+        <v>92.20833333333331</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>20200415</v>
+      </c>
+      <c r="C76">
+        <v>6.375</v>
+      </c>
+      <c r="D76">
+        <v>31.29166666666667</v>
+      </c>
+      <c r="E76">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="F76">
+        <v>95.5</v>
+      </c>
+      <c r="G76">
+        <v>63.125</v>
+      </c>
+      <c r="H76">
+        <v>151</v>
+      </c>
+      <c r="I76">
+        <v>85.625</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>20200416</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>11.04166666666667</v>
+      </c>
+      <c r="E77">
+        <v>0.33</v>
+      </c>
+      <c r="F77">
+        <v>67.45454545454545</v>
+      </c>
+      <c r="G77">
+        <v>25.125</v>
+      </c>
+      <c r="H77">
+        <v>139</v>
+      </c>
+      <c r="I77">
+        <v>58.91666666666666</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>20200417</v>
+      </c>
+      <c r="C78">
+        <v>2.125</v>
+      </c>
+      <c r="D78">
+        <v>13.25</v>
+      </c>
+      <c r="E78">
+        <v>0.4254166666666667</v>
+      </c>
+      <c r="F78">
+        <v>40.58333333333334</v>
+      </c>
+      <c r="G78">
+        <v>23.125</v>
+      </c>
+      <c r="H78">
+        <v>134</v>
+      </c>
+      <c r="I78">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79">
+        <v>20200418</v>
+      </c>
+      <c r="C79">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="D79">
+        <v>22.29166666666667</v>
+      </c>
+      <c r="E79">
+        <v>0.4054166666666667</v>
+      </c>
+      <c r="F79">
+        <v>43.91666666666666</v>
+      </c>
+      <c r="G79">
+        <v>32.16666666666666</v>
+      </c>
+      <c r="H79">
+        <v>129</v>
+      </c>
+      <c r="I79">
+        <v>46.70833333333334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80">
+        <v>20200419</v>
+      </c>
+      <c r="C80">
+        <v>2.208333333333333</v>
+      </c>
+      <c r="D80">
+        <v>22.70833333333333</v>
+      </c>
+      <c r="E80">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="F80">
+        <v>55.58333333333334</v>
+      </c>
+      <c r="G80">
+        <v>40.875</v>
+      </c>
+      <c r="H80">
+        <v>151</v>
+      </c>
+      <c r="I80">
+        <v>59.625</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81">
+        <v>20200420</v>
+      </c>
+      <c r="C81">
+        <v>2.708333333333333</v>
+      </c>
+      <c r="D81">
+        <v>5.5</v>
+      </c>
+      <c r="E81">
+        <v>0.1720833333333333</v>
+      </c>
+      <c r="F81">
+        <v>30.91666666666667</v>
+      </c>
+      <c r="G81">
+        <v>7.5</v>
+      </c>
+      <c r="H81">
+        <v>99</v>
+      </c>
+      <c r="I81">
+        <v>32.04166666666666</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82">
+        <v>20200421</v>
+      </c>
+      <c r="C82">
+        <v>2.636363636363636</v>
+      </c>
+      <c r="D82">
+        <v>5.272727272727272</v>
+      </c>
+      <c r="E82">
+        <v>0.1436363636363636</v>
+      </c>
+      <c r="F82">
+        <v>32.86363636363637</v>
+      </c>
+      <c r="G82">
+        <v>7.363636363636363</v>
+      </c>
+      <c r="H82">
+        <v>83</v>
+      </c>
+      <c r="I82">
+        <v>33.40909090909091</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83">
+        <v>20200422</v>
+      </c>
+      <c r="C83">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="D83">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="E83">
+        <v>0.1325</v>
+      </c>
+      <c r="F83">
+        <v>24.75</v>
+      </c>
+      <c r="G83">
+        <v>5.909090909090909</v>
+      </c>
+      <c r="H83">
+        <v>98</v>
+      </c>
+      <c r="I83">
+        <v>29.83333333333333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84">
+        <v>20200423</v>
+      </c>
+      <c r="C84">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="D84">
+        <v>8.458333333333334</v>
+      </c>
+      <c r="E84">
+        <v>0.1608333333333333</v>
+      </c>
+      <c r="F84">
+        <v>20.54166666666667</v>
+      </c>
+      <c r="G84">
+        <v>7.166666666666667</v>
+      </c>
+      <c r="H84">
+        <v>88</v>
+      </c>
+      <c r="I84">
+        <v>25.70833333333333</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85">
+        <v>20200424</v>
+      </c>
+      <c r="C85">
+        <v>2.041666666666667</v>
+      </c>
+      <c r="D85">
+        <v>18.04166666666667</v>
+      </c>
+      <c r="E85">
+        <v>0.2125</v>
+      </c>
+      <c r="F85">
+        <v>125.75</v>
+      </c>
+      <c r="G85">
+        <v>19</v>
+      </c>
+      <c r="H85">
+        <v>101</v>
+      </c>
+      <c r="I85">
+        <v>89.95833333333333</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86">
+        <v>20200425</v>
+      </c>
+      <c r="C86">
+        <v>2.565217391304348</v>
+      </c>
+      <c r="D86">
+        <v>5.913043478260869</v>
+      </c>
+      <c r="E86">
+        <v>0.1843478260869565</v>
+      </c>
+      <c r="F86">
+        <v>54.04347826086956</v>
+      </c>
+      <c r="G86">
+        <v>9.913043478260869</v>
+      </c>
+      <c r="H86">
+        <v>97</v>
+      </c>
+      <c r="I86">
+        <v>47.26086956521739</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87">
+        <v>20200426</v>
+      </c>
+      <c r="C87">
+        <v>2.5</v>
+      </c>
+      <c r="D87">
+        <v>19.58333333333333</v>
+      </c>
+      <c r="E87">
+        <v>0.2420833333333333</v>
+      </c>
+      <c r="F87">
+        <v>30.58333333333333</v>
+      </c>
+      <c r="G87">
+        <v>12.41666666666667</v>
+      </c>
+      <c r="H87">
+        <v>99</v>
+      </c>
+      <c r="I87">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88">
+        <v>20200427</v>
+      </c>
+      <c r="C88">
+        <v>3.875</v>
+      </c>
+      <c r="D88">
+        <v>29.625</v>
+      </c>
+      <c r="E88">
+        <v>0.6704166666666667</v>
+      </c>
+      <c r="F88">
+        <v>63.79166666666666</v>
+      </c>
+      <c r="G88">
+        <v>41.29166666666666</v>
+      </c>
+      <c r="H88">
+        <v>131</v>
+      </c>
+      <c r="I88">
+        <v>59.66666666666666</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89">
+        <v>20200428</v>
+      </c>
+      <c r="C89">
+        <v>5.625</v>
+      </c>
+      <c r="D89">
+        <v>40.83333333333334</v>
+      </c>
+      <c r="E89">
+        <v>0.5908333333333333</v>
+      </c>
+      <c r="F89">
+        <v>105.5833333333333</v>
+      </c>
+      <c r="G89">
+        <v>59.625</v>
+      </c>
+      <c r="H89">
+        <v>194</v>
+      </c>
+      <c r="I89">
+        <v>85.83333333333333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90">
+        <v>20200429</v>
+      </c>
+      <c r="C90">
+        <v>8</v>
+      </c>
+      <c r="D90">
+        <v>26.875</v>
+      </c>
+      <c r="E90">
+        <v>0.6275000000000001</v>
+      </c>
+      <c r="F90">
+        <v>120.2916666666667</v>
+      </c>
+      <c r="G90">
+        <v>60.83333333333334</v>
+      </c>
+      <c r="H90">
+        <v>217</v>
+      </c>
+      <c r="I90">
+        <v>95.29166666666669</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91">
+        <v>20200430</v>
+      </c>
+      <c r="C91">
+        <v>8.916666666666666</v>
+      </c>
+      <c r="D91">
+        <v>43.66666666666666</v>
+      </c>
+      <c r="E91">
+        <v>0.9858333333333332</v>
+      </c>
+      <c r="F91">
+        <v>124.5416666666667</v>
+      </c>
+      <c r="G91">
+        <v>91.375</v>
+      </c>
+      <c r="H91">
+        <v>275</v>
+      </c>
+      <c r="I91">
+        <v>126.5416666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -484,7 +4895,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -519,6 +4930,1775 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>20200501</v>
+      </c>
+      <c r="C2">
+        <v>6.625</v>
+      </c>
+      <c r="D2">
+        <v>42.29166666666666</v>
+      </c>
+      <c r="E2">
+        <v>1.090416666666667</v>
+      </c>
+      <c r="F2">
+        <v>133.9583333333333</v>
+      </c>
+      <c r="G2">
+        <v>109.375</v>
+      </c>
+      <c r="H2">
+        <v>283</v>
+      </c>
+      <c r="I2">
+        <v>154.3333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>20200502</v>
+      </c>
+      <c r="C3">
+        <v>3.75</v>
+      </c>
+      <c r="D3">
+        <v>20.41666666666667</v>
+      </c>
+      <c r="E3">
+        <v>0.6062500000000001</v>
+      </c>
+      <c r="F3">
+        <v>83.08333333333333</v>
+      </c>
+      <c r="G3">
+        <v>55.625</v>
+      </c>
+      <c r="H3">
+        <v>223</v>
+      </c>
+      <c r="I3">
+        <v>85.79166666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>20200503</v>
+      </c>
+      <c r="C4">
+        <v>4.708333333333333</v>
+      </c>
+      <c r="D4">
+        <v>25.08333333333333</v>
+      </c>
+      <c r="E4">
+        <v>1.12125</v>
+      </c>
+      <c r="F4">
+        <v>64.125</v>
+      </c>
+      <c r="G4">
+        <v>57.70833333333334</v>
+      </c>
+      <c r="H4">
+        <v>166</v>
+      </c>
+      <c r="I4">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>20200504</v>
+      </c>
+      <c r="C5">
+        <v>4.208333333333333</v>
+      </c>
+      <c r="D5">
+        <v>26.125</v>
+      </c>
+      <c r="E5">
+        <v>0.76125</v>
+      </c>
+      <c r="F5">
+        <v>51.33333333333334</v>
+      </c>
+      <c r="G5">
+        <v>35.66666666666666</v>
+      </c>
+      <c r="H5">
+        <v>62</v>
+      </c>
+      <c r="I5">
+        <v>52.16666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>20200505</v>
+      </c>
+      <c r="C6">
+        <v>2.5</v>
+      </c>
+      <c r="D6">
+        <v>28.625</v>
+      </c>
+      <c r="E6">
+        <v>0.5520833333333334</v>
+      </c>
+      <c r="F6">
+        <v>48.5</v>
+      </c>
+      <c r="G6">
+        <v>46.16666666666666</v>
+      </c>
+      <c r="H6">
+        <v>89</v>
+      </c>
+      <c r="I6">
+        <v>64.08333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>20200506</v>
+      </c>
+      <c r="C7">
+        <v>3.583333333333333</v>
+      </c>
+      <c r="D7">
+        <v>30.45833333333333</v>
+      </c>
+      <c r="E7">
+        <v>0.70375</v>
+      </c>
+      <c r="F7">
+        <v>65.375</v>
+      </c>
+      <c r="G7">
+        <v>73.625</v>
+      </c>
+      <c r="H7">
+        <v>183</v>
+      </c>
+      <c r="I7">
+        <v>98.45833333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>20200507</v>
+      </c>
+      <c r="C8">
+        <v>8.083333333333334</v>
+      </c>
+      <c r="D8">
+        <v>34.45833333333334</v>
+      </c>
+      <c r="E8">
+        <v>1.269166666666667</v>
+      </c>
+      <c r="F8">
+        <v>69.04166666666667</v>
+      </c>
+      <c r="G8">
+        <v>74</v>
+      </c>
+      <c r="H8">
+        <v>156</v>
+      </c>
+      <c r="I8">
+        <v>98.70833333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>20200508</v>
+      </c>
+      <c r="C9">
+        <v>2.208333333333333</v>
+      </c>
+      <c r="D9">
+        <v>19.125</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>21.33333333333333</v>
+      </c>
+      <c r="G9">
+        <v>41.83333333333334</v>
+      </c>
+      <c r="H9">
+        <v>88</v>
+      </c>
+      <c r="I9">
+        <v>57.58333333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>20200509</v>
+      </c>
+      <c r="C10">
+        <v>2.375</v>
+      </c>
+      <c r="D10">
+        <v>25.20833333333333</v>
+      </c>
+      <c r="E10">
+        <v>0.6095833333333334</v>
+      </c>
+      <c r="F10">
+        <v>29.25</v>
+      </c>
+      <c r="G10">
+        <v>33.375</v>
+      </c>
+      <c r="H10">
+        <v>83</v>
+      </c>
+      <c r="I10">
+        <v>47.54166666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>20200510</v>
+      </c>
+      <c r="C11">
+        <v>2.083333333333333</v>
+      </c>
+      <c r="D11">
+        <v>17.58333333333333</v>
+      </c>
+      <c r="E11">
+        <v>0.3870833333333333</v>
+      </c>
+      <c r="F11">
+        <v>60.66666666666666</v>
+      </c>
+      <c r="G11">
+        <v>19.70833333333333</v>
+      </c>
+      <c r="H11">
+        <v>84</v>
+      </c>
+      <c r="I11">
+        <v>53.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>20200511</v>
+      </c>
+      <c r="C12">
+        <v>2.583333333333333</v>
+      </c>
+      <c r="D12">
+        <v>9.875</v>
+      </c>
+      <c r="E12">
+        <v>0.21125</v>
+      </c>
+      <c r="F12">
+        <v>117.625</v>
+      </c>
+      <c r="G12">
+        <v>17.75</v>
+      </c>
+      <c r="H12">
+        <v>90</v>
+      </c>
+      <c r="I12">
+        <v>92.54166666666669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>20200512</v>
+      </c>
+      <c r="C13">
+        <v>2.291666666666667</v>
+      </c>
+      <c r="D13">
+        <v>13.41666666666667</v>
+      </c>
+      <c r="E13">
+        <v>0.23625</v>
+      </c>
+      <c r="F13">
+        <v>125.8333333333333</v>
+      </c>
+      <c r="G13">
+        <v>18.125</v>
+      </c>
+      <c r="H13">
+        <v>103</v>
+      </c>
+      <c r="I13">
+        <v>87.79166666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>20200513</v>
+      </c>
+      <c r="C14">
+        <v>3.782608695652174</v>
+      </c>
+      <c r="D14">
+        <v>33.43478260869565</v>
+      </c>
+      <c r="E14">
+        <v>0.4743478260869565</v>
+      </c>
+      <c r="F14">
+        <v>181.8695652173913</v>
+      </c>
+      <c r="G14">
+        <v>38.65217391304348</v>
+      </c>
+      <c r="H14">
+        <v>168</v>
+      </c>
+      <c r="I14">
+        <v>116.1739130434783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>20200514</v>
+      </c>
+      <c r="C15">
+        <v>4.041666666666667</v>
+      </c>
+      <c r="D15">
+        <v>24.91666666666667</v>
+      </c>
+      <c r="E15">
+        <v>0.5366666666666667</v>
+      </c>
+      <c r="F15">
+        <v>95.20833333333331</v>
+      </c>
+      <c r="G15">
+        <v>36.79166666666666</v>
+      </c>
+      <c r="H15">
+        <v>177</v>
+      </c>
+      <c r="I15">
+        <v>77.20833333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>20200515</v>
+      </c>
+      <c r="C16">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="D16">
+        <v>21.20833333333333</v>
+      </c>
+      <c r="E16">
+        <v>0.5754166666666667</v>
+      </c>
+      <c r="F16">
+        <v>53.5</v>
+      </c>
+      <c r="G16">
+        <v>40.95833333333334</v>
+      </c>
+      <c r="H16">
+        <v>153</v>
+      </c>
+      <c r="I16">
+        <v>60.625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>20200516</v>
+      </c>
+      <c r="C17">
+        <v>2.25</v>
+      </c>
+      <c r="D17">
+        <v>25.66666666666667</v>
+      </c>
+      <c r="E17">
+        <v>0.6316666666666667</v>
+      </c>
+      <c r="F17">
+        <v>59.75</v>
+      </c>
+      <c r="G17">
+        <v>41.66666666666666</v>
+      </c>
+      <c r="H17">
+        <v>90</v>
+      </c>
+      <c r="I17">
+        <v>63.66666666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>20200517</v>
+      </c>
+      <c r="C18">
+        <v>2.041666666666667</v>
+      </c>
+      <c r="D18">
+        <v>29.5</v>
+      </c>
+      <c r="E18">
+        <v>0.2970833333333333</v>
+      </c>
+      <c r="F18">
+        <v>81.75</v>
+      </c>
+      <c r="G18">
+        <v>17.375</v>
+      </c>
+      <c r="H18">
+        <v>71</v>
+      </c>
+      <c r="I18">
+        <v>65.45833333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>20200518</v>
+      </c>
+      <c r="C19">
+        <v>2.208333333333333</v>
+      </c>
+      <c r="D19">
+        <v>12.29166666666667</v>
+      </c>
+      <c r="E19">
+        <v>0.1987499999999999</v>
+      </c>
+      <c r="F19">
+        <v>45.91666666666666</v>
+      </c>
+      <c r="G19">
+        <v>10.41666666666667</v>
+      </c>
+      <c r="H19">
+        <v>84</v>
+      </c>
+      <c r="I19">
+        <v>41.91666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>20200519</v>
+      </c>
+      <c r="C20">
+        <v>2.130434782608696</v>
+      </c>
+      <c r="D20">
+        <v>21.56521739130435</v>
+      </c>
+      <c r="E20">
+        <v>0.2547826086956521</v>
+      </c>
+      <c r="F20">
+        <v>47.26086956521739</v>
+      </c>
+      <c r="G20">
+        <v>14.26086956521739</v>
+      </c>
+      <c r="H20">
+        <v>147</v>
+      </c>
+      <c r="I20">
+        <v>49.21739130434783</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>20200520</v>
+      </c>
+      <c r="C21">
+        <v>3.25</v>
+      </c>
+      <c r="D21">
+        <v>19.83333333333333</v>
+      </c>
+      <c r="E21">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="F21">
+        <v>44.33333333333334</v>
+      </c>
+      <c r="G21">
+        <v>18.95833333333333</v>
+      </c>
+      <c r="H21">
+        <v>191</v>
+      </c>
+      <c r="I21">
+        <v>49.79166666666666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>20200521</v>
+      </c>
+      <c r="C22">
+        <v>5.041666666666667</v>
+      </c>
+      <c r="D22">
+        <v>25.625</v>
+      </c>
+      <c r="E22">
+        <v>1.262916666666667</v>
+      </c>
+      <c r="F22">
+        <v>76.04761904761905</v>
+      </c>
+      <c r="G22">
+        <v>70.91666666666667</v>
+      </c>
+      <c r="H22">
+        <v>179</v>
+      </c>
+      <c r="I22">
+        <v>95.04166666666669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>20200522</v>
+      </c>
+      <c r="C23">
+        <v>2.125</v>
+      </c>
+      <c r="D23">
+        <v>19.66666666666667</v>
+      </c>
+      <c r="E23">
+        <v>0.8125</v>
+      </c>
+      <c r="F23">
+        <v>38.2</v>
+      </c>
+      <c r="G23">
+        <v>45.25</v>
+      </c>
+      <c r="H23">
+        <v>132</v>
+      </c>
+      <c r="I23">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>20200523</v>
+      </c>
+      <c r="C24">
+        <v>3.208333333333333</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>0.2716666666666666</v>
+      </c>
+      <c r="F24">
+        <v>15.70833333333333</v>
+      </c>
+      <c r="G24">
+        <v>5.458333333333333</v>
+      </c>
+      <c r="H24">
+        <v>106</v>
+      </c>
+      <c r="I24">
+        <v>22.58333333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>20200524</v>
+      </c>
+      <c r="C25">
+        <v>2.125</v>
+      </c>
+      <c r="D25">
+        <v>18.58333333333333</v>
+      </c>
+      <c r="E25">
+        <v>0.2975</v>
+      </c>
+      <c r="F25">
+        <v>20.08333333333333</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>114</v>
+      </c>
+      <c r="I25">
+        <v>29.125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>20200525</v>
+      </c>
+      <c r="C26">
+        <v>2.625</v>
+      </c>
+      <c r="D26">
+        <v>27.66666666666667</v>
+      </c>
+      <c r="E26">
+        <v>0.3170833333333333</v>
+      </c>
+      <c r="F26">
+        <v>27.125</v>
+      </c>
+      <c r="G26">
+        <v>9.583333333333334</v>
+      </c>
+      <c r="H26">
+        <v>99</v>
+      </c>
+      <c r="I26">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>20200526</v>
+      </c>
+      <c r="C27">
+        <v>2.291666666666667</v>
+      </c>
+      <c r="D27">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="E27">
+        <v>0.2458333333333333</v>
+      </c>
+      <c r="F27">
+        <v>18.45833333333333</v>
+      </c>
+      <c r="G27">
+        <v>9.791666666666666</v>
+      </c>
+      <c r="H27">
+        <v>113</v>
+      </c>
+      <c r="I27">
+        <v>28.625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>20200527</v>
+      </c>
+      <c r="C28">
+        <v>2.041666666666667</v>
+      </c>
+      <c r="D28">
+        <v>12.95833333333333</v>
+      </c>
+      <c r="E28">
+        <v>0.2704166666666667</v>
+      </c>
+      <c r="F28">
+        <v>20.625</v>
+      </c>
+      <c r="G28">
+        <v>8.75</v>
+      </c>
+      <c r="H28">
+        <v>109</v>
+      </c>
+      <c r="I28">
+        <v>30.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>20200528</v>
+      </c>
+      <c r="C29">
+        <v>4.375</v>
+      </c>
+      <c r="D29">
+        <v>32.16666666666666</v>
+      </c>
+      <c r="E29">
+        <v>0.67625</v>
+      </c>
+      <c r="F29">
+        <v>60.625</v>
+      </c>
+      <c r="G29">
+        <v>37.41666666666666</v>
+      </c>
+      <c r="H29">
+        <v>192</v>
+      </c>
+      <c r="I29">
+        <v>69.66666666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>20200529</v>
+      </c>
+      <c r="C30">
+        <v>9.916666666666666</v>
+      </c>
+      <c r="D30">
+        <v>29.16666666666667</v>
+      </c>
+      <c r="E30">
+        <v>1.22</v>
+      </c>
+      <c r="F30">
+        <v>83.29166666666667</v>
+      </c>
+      <c r="G30">
+        <v>59.25</v>
+      </c>
+      <c r="H30">
+        <v>209</v>
+      </c>
+      <c r="I30">
+        <v>84.875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>20200530</v>
+      </c>
+      <c r="C31">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="D31">
+        <v>22.625</v>
+      </c>
+      <c r="E31">
+        <v>0.96</v>
+      </c>
+      <c r="F31">
+        <v>76.33333333333333</v>
+      </c>
+      <c r="G31">
+        <v>55.66666666666666</v>
+      </c>
+      <c r="H31">
+        <v>181</v>
+      </c>
+      <c r="I31">
+        <v>86.79166666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>20200531</v>
+      </c>
+      <c r="C32">
+        <v>2.916666666666667</v>
+      </c>
+      <c r="D32">
+        <v>14.20833333333333</v>
+      </c>
+      <c r="E32">
+        <v>0.2858333333333333</v>
+      </c>
+      <c r="F32">
+        <v>14.45833333333333</v>
+      </c>
+      <c r="G32">
+        <v>11.70833333333333</v>
+      </c>
+      <c r="H32">
+        <v>137</v>
+      </c>
+      <c r="I32">
+        <v>28.29166666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>20200601</v>
+      </c>
+      <c r="C33">
+        <v>3.041666666666667</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>0.3825</v>
+      </c>
+      <c r="F33">
+        <v>55.95833333333334</v>
+      </c>
+      <c r="G33">
+        <v>18.79166666666667</v>
+      </c>
+      <c r="H33">
+        <v>169</v>
+      </c>
+      <c r="I33">
+        <v>48.625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>20200602</v>
+      </c>
+      <c r="C34">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="D34">
+        <v>25</v>
+      </c>
+      <c r="E34">
+        <v>0.3475</v>
+      </c>
+      <c r="F34">
+        <v>69.95833333333333</v>
+      </c>
+      <c r="G34">
+        <v>22.58333333333333</v>
+      </c>
+      <c r="H34">
+        <v>156</v>
+      </c>
+      <c r="I34">
+        <v>56.91666666666666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>20200603</v>
+      </c>
+      <c r="C35">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="D35">
+        <v>31.5</v>
+      </c>
+      <c r="E35">
+        <v>0.3475</v>
+      </c>
+      <c r="F35">
+        <v>223.1666666666666</v>
+      </c>
+      <c r="G35">
+        <v>43.54166666666666</v>
+      </c>
+      <c r="H35">
+        <v>140</v>
+      </c>
+      <c r="I35">
+        <v>145.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>20200604</v>
+      </c>
+      <c r="C36">
+        <v>3.083333333333333</v>
+      </c>
+      <c r="D36">
+        <v>20.58333333333333</v>
+      </c>
+      <c r="E36">
+        <v>0.2829166666666666</v>
+      </c>
+      <c r="F36">
+        <v>41.66666666666666</v>
+      </c>
+      <c r="G36">
+        <v>8.75</v>
+      </c>
+      <c r="H36">
+        <v>121</v>
+      </c>
+      <c r="I36">
+        <v>42.58333333333334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>20200605</v>
+      </c>
+      <c r="C37">
+        <v>3.708333333333333</v>
+      </c>
+      <c r="D37">
+        <v>17.91666666666667</v>
+      </c>
+      <c r="E37">
+        <v>0.4841666666666666</v>
+      </c>
+      <c r="F37">
+        <v>38.75</v>
+      </c>
+      <c r="G37">
+        <v>11.83333333333333</v>
+      </c>
+      <c r="H37">
+        <v>161</v>
+      </c>
+      <c r="I37">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>20200606</v>
+      </c>
+      <c r="C38">
+        <v>5.291666666666667</v>
+      </c>
+      <c r="D38">
+        <v>25.91666666666667</v>
+      </c>
+      <c r="E38">
+        <v>0.6325</v>
+      </c>
+      <c r="F38">
+        <v>55.08333333333334</v>
+      </c>
+      <c r="G38">
+        <v>21.20833333333333</v>
+      </c>
+      <c r="H38">
+        <v>209</v>
+      </c>
+      <c r="I38">
+        <v>62.16666666666666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>20200607</v>
+      </c>
+      <c r="C39">
+        <v>5.416666666666667</v>
+      </c>
+      <c r="D39">
+        <v>34.375</v>
+      </c>
+      <c r="E39">
+        <v>0.6525</v>
+      </c>
+      <c r="F39">
+        <v>88.83333333333333</v>
+      </c>
+      <c r="G39">
+        <v>31.08333333333333</v>
+      </c>
+      <c r="H39">
+        <v>271</v>
+      </c>
+      <c r="I39">
+        <v>87.66666666666667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>20200608</v>
+      </c>
+      <c r="C40">
+        <v>4.458333333333333</v>
+      </c>
+      <c r="D40">
+        <v>31.66666666666667</v>
+      </c>
+      <c r="E40">
+        <v>0.6508333333333333</v>
+      </c>
+      <c r="F40">
+        <v>120.1666666666667</v>
+      </c>
+      <c r="G40">
+        <v>57.08333333333334</v>
+      </c>
+      <c r="H40">
+        <v>229</v>
+      </c>
+      <c r="I40">
+        <v>101.4166666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>20200609</v>
+      </c>
+      <c r="C41">
+        <v>6.956521739130435</v>
+      </c>
+      <c r="D41">
+        <v>25.8695652173913</v>
+      </c>
+      <c r="E41">
+        <v>0.811304347826087</v>
+      </c>
+      <c r="F41">
+        <v>89.30434782608695</v>
+      </c>
+      <c r="G41">
+        <v>36.8695652173913</v>
+      </c>
+      <c r="H41">
+        <v>155</v>
+      </c>
+      <c r="I41">
+        <v>70.39130434782609</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>20200610</v>
+      </c>
+      <c r="C42">
+        <v>2.291666666666667</v>
+      </c>
+      <c r="D42">
+        <v>20.16666666666667</v>
+      </c>
+      <c r="E42">
+        <v>0.81875</v>
+      </c>
+      <c r="F42">
+        <v>68.375</v>
+      </c>
+      <c r="G42">
+        <v>54.75</v>
+      </c>
+      <c r="H42">
+        <v>185</v>
+      </c>
+      <c r="I42">
+        <v>86.875</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>20200611</v>
+      </c>
+      <c r="C43">
+        <v>3.916666666666667</v>
+      </c>
+      <c r="D43">
+        <v>28.58333333333333</v>
+      </c>
+      <c r="E43">
+        <v>0.6541666666666667</v>
+      </c>
+      <c r="F43">
+        <v>72.83333333333333</v>
+      </c>
+      <c r="G43">
+        <v>48.08333333333334</v>
+      </c>
+      <c r="H43">
+        <v>171</v>
+      </c>
+      <c r="I43">
+        <v>72.125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>20200612</v>
+      </c>
+      <c r="C44">
+        <v>2.75</v>
+      </c>
+      <c r="D44">
+        <v>22.125</v>
+      </c>
+      <c r="E44">
+        <v>0.5816666666666667</v>
+      </c>
+      <c r="F44">
+        <v>53.375</v>
+      </c>
+      <c r="G44">
+        <v>30.83333333333333</v>
+      </c>
+      <c r="H44">
+        <v>232</v>
+      </c>
+      <c r="I44">
+        <v>73.79166666666667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>20200613</v>
+      </c>
+      <c r="C45">
+        <v>3.25</v>
+      </c>
+      <c r="D45">
+        <v>26.45833333333333</v>
+      </c>
+      <c r="E45">
+        <v>0.7358333333333333</v>
+      </c>
+      <c r="F45">
+        <v>89.33333333333333</v>
+      </c>
+      <c r="G45">
+        <v>52.45833333333334</v>
+      </c>
+      <c r="H45">
+        <v>216</v>
+      </c>
+      <c r="I45">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>20200614</v>
+      </c>
+      <c r="C46">
+        <v>2.375</v>
+      </c>
+      <c r="D46">
+        <v>12.5</v>
+      </c>
+      <c r="E46">
+        <v>0.2241666666666666</v>
+      </c>
+      <c r="F46">
+        <v>24.29166666666667</v>
+      </c>
+      <c r="G46">
+        <v>6.416666666666667</v>
+      </c>
+      <c r="H46">
+        <v>139</v>
+      </c>
+      <c r="I46">
+        <v>35.08333333333334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>20200615</v>
+      </c>
+      <c r="C47">
+        <v>2.208333333333333</v>
+      </c>
+      <c r="D47">
+        <v>26.45833333333333</v>
+      </c>
+      <c r="E47">
+        <v>0.3225</v>
+      </c>
+      <c r="F47">
+        <v>50.20833333333334</v>
+      </c>
+      <c r="G47">
+        <v>13.79166666666667</v>
+      </c>
+      <c r="H47">
+        <v>154</v>
+      </c>
+      <c r="I47">
+        <v>54.91666666666666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>20200616</v>
+      </c>
+      <c r="C48">
+        <v>11.625</v>
+      </c>
+      <c r="D48">
+        <v>30.5</v>
+      </c>
+      <c r="E48">
+        <v>0.87125</v>
+      </c>
+      <c r="F48">
+        <v>107.5416666666667</v>
+      </c>
+      <c r="G48">
+        <v>34.25</v>
+      </c>
+      <c r="H48">
+        <v>223</v>
+      </c>
+      <c r="I48">
+        <v>93.875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>20200617</v>
+      </c>
+      <c r="C49">
+        <v>2.541666666666667</v>
+      </c>
+      <c r="D49">
+        <v>19.125</v>
+      </c>
+      <c r="E49">
+        <v>0.4433333333333333</v>
+      </c>
+      <c r="F49">
+        <v>84.5</v>
+      </c>
+      <c r="G49">
+        <v>20.95833333333333</v>
+      </c>
+      <c r="H49">
+        <v>166</v>
+      </c>
+      <c r="I49">
+        <v>67.66666666666667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>20200618</v>
+      </c>
+      <c r="C50">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="D50">
+        <v>20.91666666666667</v>
+      </c>
+      <c r="E50">
+        <v>0.4975</v>
+      </c>
+      <c r="F50">
+        <v>58.625</v>
+      </c>
+      <c r="G50">
+        <v>23.91666666666667</v>
+      </c>
+      <c r="H50">
+        <v>168</v>
+      </c>
+      <c r="I50">
+        <v>59.08333333333334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>20200619</v>
+      </c>
+      <c r="C51">
+        <v>2.541666666666667</v>
+      </c>
+      <c r="D51">
+        <v>18.125</v>
+      </c>
+      <c r="E51">
+        <v>0.4483333333333333</v>
+      </c>
+      <c r="F51">
+        <v>42.54166666666666</v>
+      </c>
+      <c r="G51">
+        <v>23.08333333333333</v>
+      </c>
+      <c r="H51">
+        <v>184</v>
+      </c>
+      <c r="I51">
+        <v>55.70833333333334</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>20200620</v>
+      </c>
+      <c r="C52">
+        <v>3.583333333333333</v>
+      </c>
+      <c r="D52">
+        <v>18.875</v>
+      </c>
+      <c r="E52">
+        <v>0.57</v>
+      </c>
+      <c r="F52">
+        <v>77.33333333333333</v>
+      </c>
+      <c r="G52">
+        <v>36.20833333333334</v>
+      </c>
+      <c r="H52">
+        <v>212</v>
+      </c>
+      <c r="I52">
+        <v>77.58333333333333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>20200621</v>
+      </c>
+      <c r="C53">
+        <v>3.25</v>
+      </c>
+      <c r="D53">
+        <v>19.70833333333333</v>
+      </c>
+      <c r="E53">
+        <v>0.5625</v>
+      </c>
+      <c r="F53">
+        <v>73.29166666666667</v>
+      </c>
+      <c r="G53">
+        <v>35.08333333333334</v>
+      </c>
+      <c r="H53">
+        <v>193</v>
+      </c>
+      <c r="I53">
+        <v>75.375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>20200622</v>
+      </c>
+      <c r="C54">
+        <v>3.5</v>
+      </c>
+      <c r="D54">
+        <v>21.375</v>
+      </c>
+      <c r="E54">
+        <v>0.7029166666666667</v>
+      </c>
+      <c r="F54">
+        <v>83.54166666666667</v>
+      </c>
+      <c r="G54">
+        <v>49.79166666666666</v>
+      </c>
+      <c r="H54">
+        <v>191</v>
+      </c>
+      <c r="I54">
+        <v>83.79166666666667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>20200623</v>
+      </c>
+      <c r="C55">
+        <v>3.916666666666667</v>
+      </c>
+      <c r="D55">
+        <v>21.70833333333333</v>
+      </c>
+      <c r="E55">
+        <v>0.7608333333333334</v>
+      </c>
+      <c r="F55">
+        <v>62.66666666666666</v>
+      </c>
+      <c r="G55">
+        <v>44.625</v>
+      </c>
+      <c r="H55">
+        <v>187</v>
+      </c>
+      <c r="I55">
+        <v>69.66666666666667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>20200624</v>
+      </c>
+      <c r="C56">
+        <v>2.208333333333333</v>
+      </c>
+      <c r="D56">
+        <v>14</v>
+      </c>
+      <c r="E56">
+        <v>0.46375</v>
+      </c>
+      <c r="F56">
+        <v>29.45833333333333</v>
+      </c>
+      <c r="G56">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="H56">
+        <v>146</v>
+      </c>
+      <c r="I56">
+        <v>33.875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>20200625</v>
+      </c>
+      <c r="C57">
+        <v>2.291666666666667</v>
+      </c>
+      <c r="D57">
+        <v>19.375</v>
+      </c>
+      <c r="E57">
+        <v>0.5929166666666666</v>
+      </c>
+      <c r="F57">
+        <v>34.91666666666666</v>
+      </c>
+      <c r="G57">
+        <v>32.5</v>
+      </c>
+      <c r="H57">
+        <v>140</v>
+      </c>
+      <c r="I57">
+        <v>47.08333333333334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>20200626</v>
+      </c>
+      <c r="C58">
+        <v>2.625</v>
+      </c>
+      <c r="D58">
+        <v>17.375</v>
+      </c>
+      <c r="E58">
+        <v>0.5591666666666667</v>
+      </c>
+      <c r="F58">
+        <v>31.66666666666667</v>
+      </c>
+      <c r="G58">
+        <v>27.66666666666667</v>
+      </c>
+      <c r="H58">
+        <v>161</v>
+      </c>
+      <c r="I58">
+        <v>41.79166666666666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>20200627</v>
+      </c>
+      <c r="C59">
+        <v>2.375</v>
+      </c>
+      <c r="D59">
+        <v>21.83333333333333</v>
+      </c>
+      <c r="E59">
+        <v>0.8608333333333333</v>
+      </c>
+      <c r="F59">
+        <v>65.625</v>
+      </c>
+      <c r="G59">
+        <v>65.58333333333333</v>
+      </c>
+      <c r="H59">
+        <v>203</v>
+      </c>
+      <c r="I59">
+        <v>101.4166666666667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>20200628</v>
+      </c>
+      <c r="C60">
+        <v>2.458333333333333</v>
+      </c>
+      <c r="D60">
+        <v>17.54166666666667</v>
+      </c>
+      <c r="E60">
+        <v>0.8762500000000001</v>
+      </c>
+      <c r="F60">
+        <v>55.04166666666666</v>
+      </c>
+      <c r="G60">
+        <v>58.04166666666666</v>
+      </c>
+      <c r="H60">
+        <v>189</v>
+      </c>
+      <c r="I60">
+        <v>89.58333333333333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>20200629</v>
+      </c>
+      <c r="C61">
+        <v>2.916666666666667</v>
+      </c>
+      <c r="D61">
+        <v>26.54166666666667</v>
+      </c>
+      <c r="E61">
+        <v>0.545</v>
+      </c>
+      <c r="F61">
+        <v>38.70833333333334</v>
+      </c>
+      <c r="G61">
+        <v>28.375</v>
+      </c>
+      <c r="H61">
+        <v>150</v>
+      </c>
+      <c r="I61">
+        <v>43.70833333333334</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>20200630</v>
+      </c>
+      <c r="C62">
+        <v>2.708333333333333</v>
+      </c>
+      <c r="D62">
+        <v>16.54166666666667</v>
+      </c>
+      <c r="E62">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="F62">
+        <v>25.83333333333333</v>
+      </c>
+      <c r="G62">
+        <v>15.20833333333333</v>
+      </c>
+      <c r="H62">
+        <v>145</v>
+      </c>
+      <c r="I62">
+        <v>38.08333333333334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
